--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>935398.1568782085</v>
+        <v>934961.0325159208</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>289463.2372097932</v>
+        <v>289463.2372097938</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>61.48372963921954</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>334.8112314378515</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
         <v>411.9429466803539</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>10.82911801295226</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
@@ -795,7 +795,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>56.1558000307077</v>
       </c>
       <c r="W3" t="n">
         <v>238.9027100790231</v>
@@ -804,7 +804,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>139.0040357308908</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>119.143910074773</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>290.7984816387501</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>73.68435938159533</v>
       </c>
       <c r="G6" t="n">
         <v>127.4412149769483</v>
@@ -993,7 +993,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
@@ -1041,7 +1041,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>38.43943516027724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.690891553375</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>20.24036763426783</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.5254551297493</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
@@ -1221,10 +1221,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
@@ -1266,7 +1266,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>22.23537840313667</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1275,10 +1275,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>89.49663856023973</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>128.9874563185103</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>177.0990279530006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>296.7936761061118</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>284.8049930637935</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>275.7862971083215</v>
       </c>
       <c r="E11" t="n">
-        <v>297.5284346782271</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>221.9501733152004</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>318.6169417623507</v>
+        <v>318.6169417623506</v>
       </c>
       <c r="H11" t="n">
-        <v>236.0138654517434</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>77.14051780012015</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>91.66951146139463</v>
+        <v>91.66951146139458</v>
       </c>
       <c r="T11" t="n">
         <v>128.7333634042359</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.0257287543166</v>
       </c>
       <c r="V11" t="n">
-        <v>240.3000533462909</v>
+        <v>230.2285133467738</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>265.6001528242477</v>
       </c>
       <c r="X11" t="n">
-        <v>284.9004110569945</v>
+        <v>284.9004110569944</v>
       </c>
       <c r="Y11" t="n">
-        <v>296.2970088531932</v>
+        <v>296.2970088531931</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>147.9756242177725</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
@@ -1467,7 +1467,7 @@
         <v>98.85281891431895</v>
       </c>
       <c r="I12" t="n">
-        <v>67.39308974070319</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>58.63574390140148</v>
       </c>
       <c r="S12" t="n">
         <v>151.1067464546052</v>
@@ -1509,7 +1509,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>218.0343524260393</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.41038698080888</v>
+        <v>31.71958342976792</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>74.61038182620931</v>
       </c>
       <c r="D13" t="n">
-        <v>58.23174622378775</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>57.1794960795672</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>57.64642040775351</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>73.91368730186912</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>49.22797033221931</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>118.1336507644933</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>137.5059643739403</v>
       </c>
       <c r="U13" t="n">
-        <v>191.0085035084877</v>
+        <v>191.0085035084876</v>
       </c>
       <c r="V13" t="n">
-        <v>164.8185233804345</v>
+        <v>164.8185233804344</v>
       </c>
       <c r="W13" t="n">
         <v>189.9854094510477</v>
@@ -1594,7 +1594,7 @@
         <v>135.6305114468508</v>
       </c>
       <c r="Y13" t="n">
-        <v>103.8652522713232</v>
+        <v>126.5053792029185</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>276.1797108823019</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>84.88769208322404</v>
       </c>
       <c r="E14" t="n">
-        <v>288.9031524967354</v>
+        <v>288.9031524967355</v>
       </c>
       <c r="F14" t="n">
-        <v>308.0749685847126</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>309.9916595808591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>68.51523561862858</v>
+        <v>68.51523561862864</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.04422927990301</v>
+        <v>83.04422927990306</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>120.1080812227443</v>
       </c>
       <c r="U14" t="n">
-        <v>150.400446572825</v>
+        <v>150.4004465728251</v>
       </c>
       <c r="V14" t="n">
-        <v>106.275642976898</v>
+        <v>231.6747711647993</v>
       </c>
       <c r="W14" t="n">
         <v>256.9748706427562</v>
@@ -1673,7 +1673,7 @@
         <v>276.2751288755028</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>287.6717266717016</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1692,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>66.05362828931199</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
@@ -1704,7 +1704,7 @@
         <v>98.85281891431895</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.39308974070319</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>186.7625027923461</v>
       </c>
       <c r="U15" t="n">
-        <v>204.1982491492465</v>
+        <v>216.3092609629287</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.78510479931725</v>
+        <v>79.7851047993173</v>
       </c>
       <c r="C16" t="n">
-        <v>65.98509964471774</v>
+        <v>65.98509964471778</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>49.60646404229617</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>49.02113822626188</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>40.60268815072769</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>45.75751154181428</v>
       </c>
       <c r="S16" t="n">
-        <v>108.4503908170341</v>
+        <v>109.5083685830017</v>
       </c>
       <c r="T16" t="n">
         <v>128.8806821924488</v>
@@ -1822,16 +1822,16 @@
         <v>182.3832213269961</v>
       </c>
       <c r="V16" t="n">
-        <v>156.1932411989428</v>
+        <v>156.1932411989429</v>
       </c>
       <c r="W16" t="n">
         <v>181.3601272695561</v>
       </c>
       <c r="X16" t="n">
-        <v>127.0052292653592</v>
+        <v>127.0052292653593</v>
       </c>
       <c r="Y16" t="n">
-        <v>117.8800970214269</v>
+        <v>111.0819700483383</v>
       </c>
     </row>
     <row r="17">
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.52899366127443</v>
+        <v>14.52899366127441</v>
       </c>
       <c r="T17" t="n">
-        <v>51.59284560411569</v>
+        <v>51.5928456041157</v>
       </c>
       <c r="U17" t="n">
         <v>81.88521095419645</v>
@@ -1929,10 +1929,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>133.4467180300151</v>
       </c>
       <c r="F18" t="n">
-        <v>53.84275851523886</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
         <v>127.4323455528363</v>
@@ -1941,7 +1941,7 @@
         <v>98.85281891431895</v>
       </c>
       <c r="I18" t="n">
-        <v>67.39308974070319</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>127.4323455528363</v>
       </c>
       <c r="H21" t="n">
-        <v>98.85281891431895</v>
+        <v>19.34871735993346</v>
       </c>
       <c r="I21" t="n">
         <v>67.39308974070319</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>58.63574390140148</v>
       </c>
       <c r="S21" t="n">
-        <v>130.2383888016211</v>
+        <v>151.1067464546052</v>
       </c>
       <c r="T21" t="n">
         <v>186.7625027923461</v>
@@ -2412,7 +2412,7 @@
         <v>127.4323455528363</v>
       </c>
       <c r="H24" t="n">
-        <v>86.74180710063665</v>
+        <v>86.74180710063841</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>98.85281891431895</v>
       </c>
       <c r="I27" t="n">
-        <v>67.39308974070426</v>
+        <v>67.39308974070319</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2792,25 +2792,25 @@
         <v>269.6243332094016</v>
       </c>
       <c r="C29" t="n">
-        <v>257.6356501670834</v>
+        <v>257.6356501670833</v>
       </c>
       <c r="D29" t="n">
-        <v>248.6169542116114</v>
+        <v>248.6169542116113</v>
       </c>
       <c r="E29" t="n">
-        <v>270.3590917815169</v>
+        <v>270.3590917815168</v>
       </c>
       <c r="F29" t="n">
-        <v>289.5309078694941</v>
+        <v>160.1516751471196</v>
       </c>
       <c r="G29" t="n">
         <v>291.4475988656405</v>
       </c>
       <c r="H29" t="n">
-        <v>208.8445225550333</v>
+        <v>208.8445225550332</v>
       </c>
       <c r="I29" t="n">
-        <v>49.97117490341004</v>
+        <v>49.97117490341</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>64.50016856468446</v>
+        <v>64.50016856468443</v>
       </c>
       <c r="T29" t="n">
         <v>101.5640205075257</v>
       </c>
       <c r="U29" t="n">
-        <v>2.477153135231974</v>
+        <v>131.8563858576065</v>
       </c>
       <c r="V29" t="n">
-        <v>213.1307104495808</v>
+        <v>213.1307104495807</v>
       </c>
       <c r="W29" t="n">
-        <v>238.4308099275377</v>
+        <v>238.4308099275376</v>
       </c>
       <c r="X29" t="n">
-        <v>257.7310681602843</v>
+        <v>257.7310681602842</v>
       </c>
       <c r="Y29" t="n">
         <v>269.127665956483</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>61.2410440840987</v>
+        <v>61.24104408409866</v>
       </c>
       <c r="C31" t="n">
-        <v>47.44103892949919</v>
+        <v>47.44103892949914</v>
       </c>
       <c r="D31" t="n">
-        <v>31.06240332707758</v>
+        <v>31.06240332707753</v>
       </c>
       <c r="E31" t="n">
-        <v>30.01015318285702</v>
+        <v>30.01015318285698</v>
       </c>
       <c r="F31" t="n">
-        <v>30.47707751104333</v>
+        <v>30.47707751104329</v>
       </c>
       <c r="G31" t="n">
-        <v>46.74434440515895</v>
+        <v>46.74434440515891</v>
       </c>
       <c r="H31" t="n">
-        <v>37.23403659114418</v>
+        <v>37.23403659114413</v>
       </c>
       <c r="I31" t="n">
-        <v>22.05862743550913</v>
+        <v>22.05862743550909</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>27.21345082659569</v>
+        <v>27.21345082659564</v>
       </c>
       <c r="S31" t="n">
-        <v>90.96430786778313</v>
+        <v>90.96430786778309</v>
       </c>
       <c r="T31" t="n">
         <v>110.3366214772302</v>
@@ -3010,13 +3010,13 @@
         <v>137.6491804837243</v>
       </c>
       <c r="W31" t="n">
-        <v>162.8160665543376</v>
+        <v>162.8160665543375</v>
       </c>
       <c r="X31" t="n">
-        <v>108.4611685501407</v>
+        <v>108.4611685501406</v>
       </c>
       <c r="Y31" t="n">
-        <v>99.33603630620836</v>
+        <v>99.33603630620831</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>249.9005501407219</v>
+        <v>249.9005501407218</v>
       </c>
       <c r="C32" t="n">
         <v>237.9118670984036</v>
       </c>
       <c r="D32" t="n">
-        <v>228.8931711429316</v>
+        <v>228.8931711429315</v>
       </c>
       <c r="E32" t="n">
         <v>250.6353087128371</v>
       </c>
       <c r="F32" t="n">
-        <v>269.8071248008143</v>
+        <v>269.8071248008142</v>
       </c>
       <c r="G32" t="n">
-        <v>271.7238157969608</v>
+        <v>271.7238157969607</v>
       </c>
       <c r="H32" t="n">
-        <v>189.1207394863535</v>
+        <v>189.1207394863534</v>
       </c>
       <c r="I32" t="n">
-        <v>30.24739183473027</v>
+        <v>30.24739183473025</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>44.77638549600469</v>
+        <v>44.77638549600466</v>
       </c>
       <c r="T32" t="n">
-        <v>81.84023743884597</v>
+        <v>81.84023743884595</v>
       </c>
       <c r="U32" t="n">
         <v>112.1326027889267</v>
@@ -3095,7 +3095,7 @@
         <v>238.0072850916045</v>
       </c>
       <c r="Y32" t="n">
-        <v>249.4038828878033</v>
+        <v>249.4038828878032</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.51726101541894</v>
+        <v>41.51726101541891</v>
       </c>
       <c r="C34" t="n">
-        <v>27.71725586081942</v>
+        <v>27.71725586081939</v>
       </c>
       <c r="D34" t="n">
-        <v>11.33862025839781</v>
+        <v>11.33862025839778</v>
       </c>
       <c r="E34" t="n">
-        <v>10.28637011417726</v>
+        <v>10.28637011417723</v>
       </c>
       <c r="F34" t="n">
-        <v>10.75329444236357</v>
+        <v>10.75329444236354</v>
       </c>
       <c r="G34" t="n">
-        <v>27.02056133647918</v>
+        <v>27.02056133647915</v>
       </c>
       <c r="H34" t="n">
-        <v>17.51025352246441</v>
+        <v>17.51025352246439</v>
       </c>
       <c r="I34" t="n">
-        <v>2.334844366829371</v>
+        <v>2.334844366829342</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>7.489667757915922</v>
+        <v>7.489667757915893</v>
       </c>
       <c r="S34" t="n">
-        <v>71.24052479910337</v>
+        <v>71.24052479910334</v>
       </c>
       <c r="T34" t="n">
-        <v>90.61283840855045</v>
+        <v>90.61283840855042</v>
       </c>
       <c r="U34" t="n">
         <v>144.1153775430977</v>
@@ -3250,10 +3250,10 @@
         <v>143.0922834856578</v>
       </c>
       <c r="X34" t="n">
-        <v>88.7373854814609</v>
+        <v>88.73738548146088</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.61225323752859</v>
+        <v>79.61225323752856</v>
       </c>
     </row>
     <row r="35">
@@ -3266,13 +3266,13 @@
         <v>224.9534317429506</v>
       </c>
       <c r="C35" t="n">
-        <v>212.9647487006324</v>
+        <v>212.9647487006323</v>
       </c>
       <c r="D35" t="n">
         <v>203.9460527451603</v>
       </c>
       <c r="E35" t="n">
-        <v>225.6881903150659</v>
+        <v>225.6881903150658</v>
       </c>
       <c r="F35" t="n">
         <v>244.860006403043</v>
@@ -3284,7 +3284,7 @@
         <v>164.1736210885822</v>
       </c>
       <c r="I35" t="n">
-        <v>5.300273436959031</v>
+        <v>5.300273436959003</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>19.82926709823345</v>
+        <v>19.82926709823342</v>
       </c>
       <c r="T35" t="n">
-        <v>56.89311904107473</v>
+        <v>56.8931190410747</v>
       </c>
       <c r="U35" t="n">
-        <v>87.18548439115548</v>
+        <v>87.18548439115546</v>
       </c>
       <c r="V35" t="n">
         <v>168.4598089831297</v>
@@ -3329,7 +3329,7 @@
         <v>193.7599084610866</v>
       </c>
       <c r="X35" t="n">
-        <v>213.0601666938333</v>
+        <v>213.0601666938332</v>
       </c>
       <c r="Y35" t="n">
         <v>224.456764490032</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.57014261764769</v>
+        <v>16.57014261764766</v>
       </c>
       <c r="C37" t="n">
-        <v>2.770137463048172</v>
+        <v>2.770137463048144</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.073442938707931</v>
+        <v>2.073442938707903</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>46.29340640133212</v>
+        <v>46.29340640133209</v>
       </c>
       <c r="T37" t="n">
-        <v>65.6657200107792</v>
+        <v>65.66572001077917</v>
       </c>
       <c r="U37" t="n">
-        <v>119.1682591453265</v>
+        <v>119.1682591453264</v>
       </c>
       <c r="V37" t="n">
-        <v>92.97827901727328</v>
+        <v>92.97827901727325</v>
       </c>
       <c r="W37" t="n">
         <v>118.1451650878865</v>
       </c>
       <c r="X37" t="n">
-        <v>63.79026708368966</v>
+        <v>63.79026708368963</v>
       </c>
       <c r="Y37" t="n">
-        <v>54.66513483975734</v>
+        <v>54.66513483975731</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>224.9534317429506</v>
+        <v>224.9534317429507</v>
       </c>
       <c r="C38" t="n">
         <v>212.9647487006324</v>
@@ -3515,13 +3515,13 @@
         <v>244.8600064030431</v>
       </c>
       <c r="G38" t="n">
-        <v>246.7766973991895</v>
+        <v>246.7766973991896</v>
       </c>
       <c r="H38" t="n">
-        <v>164.1736210885822</v>
+        <v>164.1736210885823</v>
       </c>
       <c r="I38" t="n">
-        <v>5.30027343695906</v>
+        <v>5.300273436959088</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.82926709823348</v>
+        <v>19.8292670982335</v>
       </c>
       <c r="T38" t="n">
-        <v>56.89311904107476</v>
+        <v>56.89311904107479</v>
       </c>
       <c r="U38" t="n">
-        <v>87.18548439115551</v>
+        <v>87.18548439115554</v>
       </c>
       <c r="V38" t="n">
         <v>168.4598089831298</v>
@@ -3569,7 +3569,7 @@
         <v>213.0601666938333</v>
       </c>
       <c r="Y38" t="n">
-        <v>224.456764490032</v>
+        <v>224.4567644900321</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.57014261764772</v>
+        <v>16.57014261764775</v>
       </c>
       <c r="C40" t="n">
-        <v>2.770137463048201</v>
+        <v>2.770137463048229</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.07344293870796</v>
+        <v>2.073442938707988</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>46.29340640133215</v>
+        <v>46.29340640133218</v>
       </c>
       <c r="T40" t="n">
-        <v>65.66572001077922</v>
+        <v>65.66572001077925</v>
       </c>
       <c r="U40" t="n">
         <v>119.1682591453265</v>
       </c>
       <c r="V40" t="n">
-        <v>92.97827901727331</v>
+        <v>92.97827901727334</v>
       </c>
       <c r="W40" t="n">
         <v>118.1451650878866</v>
       </c>
       <c r="X40" t="n">
-        <v>63.79026708368968</v>
+        <v>63.79026708368971</v>
       </c>
       <c r="Y40" t="n">
-        <v>54.66513483975737</v>
+        <v>54.6651348397574</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>246.7766973991895</v>
       </c>
       <c r="H41" t="n">
-        <v>164.1736210885823</v>
+        <v>164.1736210885822</v>
       </c>
       <c r="I41" t="n">
         <v>5.30027343695906</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>58.63574390140238</v>
+        <v>58.63574390140148</v>
       </c>
       <c r="S42" t="n">
-        <v>151.1067464546052</v>
+        <v>151.106746454606</v>
       </c>
       <c r="T42" t="n">
         <v>186.7625027923461</v>
@@ -4068,13 +4068,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>127.4323455528373</v>
+        <v>127.4323455528363</v>
       </c>
       <c r="H45" t="n">
         <v>98.85281891431895</v>
       </c>
       <c r="I45" t="n">
-        <v>67.39308974070319</v>
+        <v>67.39308974070426</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1379.857976740432</v>
+        <v>1414.343888192577</v>
       </c>
       <c r="C2" t="n">
-        <v>1379.857976740432</v>
+        <v>1032.410129525384</v>
       </c>
       <c r="D2" t="n">
-        <v>1379.857976740432</v>
+        <v>1032.410129525384</v>
       </c>
       <c r="E2" t="n">
-        <v>1041.664813671895</v>
+        <v>637.6244096314911</v>
       </c>
       <c r="F2" t="n">
         <v>627.5136229820655</v>
@@ -4325,55 +4325,55 @@
         <v>211.4096364362535</v>
       </c>
       <c r="I2" t="n">
-        <v>38.59243764504954</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="J2" t="n">
-        <v>38.59243764504954</v>
+        <v>110.5909819178552</v>
       </c>
       <c r="K2" t="n">
-        <v>182.572249611303</v>
+        <v>350.731353962638</v>
       </c>
       <c r="L2" t="n">
-        <v>530.4576226962492</v>
+        <v>698.6167270475842</v>
       </c>
       <c r="M2" t="n">
-        <v>923.6967889493371</v>
+        <v>923.6967889493358</v>
       </c>
       <c r="N2" t="n">
-        <v>1302.028147637053</v>
+        <v>1302.028147637051</v>
       </c>
       <c r="O2" t="n">
-        <v>1607.032732109887</v>
+        <v>1607.032732109886</v>
       </c>
       <c r="P2" t="n">
-        <v>1835.18962856594</v>
+        <v>1835.189628565939</v>
       </c>
       <c r="Q2" t="n">
-        <v>1929.621882252477</v>
+        <v>1929.621882252476</v>
       </c>
       <c r="R2" t="n">
-        <v>1929.621882252477</v>
+        <v>1838.983595748329</v>
       </c>
       <c r="S2" t="n">
-        <v>1742.392906882831</v>
+        <v>1838.983595748329</v>
       </c>
       <c r="T2" t="n">
-        <v>1742.392906882831</v>
+        <v>1838.983595748329</v>
       </c>
       <c r="U2" t="n">
-        <v>1742.392906882831</v>
+        <v>1838.983595748329</v>
       </c>
       <c r="V2" t="n">
-        <v>1742.392906882831</v>
+        <v>1838.983595748329</v>
       </c>
       <c r="W2" t="n">
-        <v>1379.857976740432</v>
+        <v>1476.44866560593</v>
       </c>
       <c r="X2" t="n">
-        <v>1379.857976740432</v>
+        <v>1476.44866560593</v>
       </c>
       <c r="Y2" t="n">
-        <v>1379.857976740432</v>
+        <v>1476.44866560593</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>350.0732504572689</v>
+        <v>654.4829001202525</v>
       </c>
       <c r="C3" t="n">
-        <v>188.3695776982236</v>
+        <v>492.7792273612072</v>
       </c>
       <c r="D3" t="n">
-        <v>49.53094068843566</v>
+        <v>353.9405903514192</v>
       </c>
       <c r="E3" t="n">
-        <v>49.53094068843566</v>
+        <v>206.9125804082905</v>
       </c>
       <c r="F3" t="n">
-        <v>49.53094068843566</v>
+        <v>206.9125804082905</v>
       </c>
       <c r="G3" t="n">
-        <v>38.59243764504954</v>
+        <v>206.9125804082905</v>
       </c>
       <c r="H3" t="n">
-        <v>38.59243764504954</v>
+        <v>106.9747229549885</v>
       </c>
       <c r="I3" t="n">
-        <v>38.59243764504954</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="J3" t="n">
-        <v>38.59243764504954</v>
+        <v>98.84658417815567</v>
       </c>
       <c r="K3" t="n">
-        <v>268.0829902052382</v>
+        <v>122.3915506920578</v>
       </c>
       <c r="L3" t="n">
-        <v>633.9048353753539</v>
+        <v>122.3915506920578</v>
       </c>
       <c r="M3" t="n">
-        <v>1111.486251232842</v>
+        <v>599.9729665495455</v>
       </c>
       <c r="N3" t="n">
-        <v>1111.486251232842</v>
+        <v>1077.554382407033</v>
       </c>
       <c r="O3" t="n">
-        <v>1469.754333191185</v>
+        <v>1469.754333191184</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.850252466883</v>
+        <v>1771.850252466881</v>
       </c>
       <c r="Q3" t="n">
-        <v>1929.621882252477</v>
+        <v>1929.621882252476</v>
       </c>
       <c r="R3" t="n">
-        <v>1929.621882252477</v>
+        <v>1869.837613347421</v>
       </c>
       <c r="S3" t="n">
-        <v>1776.822395265217</v>
+        <v>1717.038126360162</v>
       </c>
       <c r="T3" t="n">
-        <v>1588.137291431202</v>
+        <v>1528.353022526147</v>
       </c>
       <c r="U3" t="n">
-        <v>1369.642499029512</v>
+        <v>1309.858230124457</v>
       </c>
       <c r="V3" t="n">
-        <v>1141.246876477846</v>
+        <v>1253.135199790409</v>
       </c>
       <c r="W3" t="n">
-        <v>899.9310077111564</v>
+        <v>1011.819331023719</v>
       </c>
       <c r="X3" t="n">
-        <v>702.014019588951</v>
+        <v>813.9023429015133</v>
       </c>
       <c r="Y3" t="n">
-        <v>509.4926932385298</v>
+        <v>813.9023429015133</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.616524083259</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="C4" t="n">
-        <v>179.0005545449393</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="D4" t="n">
-        <v>179.0005545449393</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="E4" t="n">
-        <v>179.0005545449393</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="F4" t="n">
-        <v>179.0005545449393</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="G4" t="n">
-        <v>38.59243764504954</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="H4" t="n">
-        <v>38.59243764504954</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="I4" t="n">
-        <v>38.59243764504954</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="J4" t="n">
-        <v>38.59243764504954</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="K4" t="n">
-        <v>72.19662538969295</v>
+        <v>72.19662538969293</v>
       </c>
       <c r="L4" t="n">
-        <v>172.8037047899525</v>
+        <v>172.8037047899524</v>
       </c>
       <c r="M4" t="n">
-        <v>290.7972109175542</v>
+        <v>290.7972109175541</v>
       </c>
       <c r="N4" t="n">
-        <v>409.2195526671546</v>
+        <v>409.2195526671545</v>
       </c>
       <c r="O4" t="n">
         <v>507.6831991628442</v>
@@ -4522,16 +4522,16 @@
         <v>570.651682890982</v>
       </c>
       <c r="V4" t="n">
-        <v>570.651682890982</v>
+        <v>324.7488391276504</v>
       </c>
       <c r="W4" t="n">
-        <v>570.651682890982</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="X4" t="n">
-        <v>570.651682890982</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.616524083259</v>
+        <v>38.59243764504951</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1929.621882252477</v>
+        <v>848.0775375275114</v>
       </c>
       <c r="C5" t="n">
-        <v>1809.274498338565</v>
+        <v>848.0775375275114</v>
       </c>
       <c r="D5" t="n">
-        <v>1436.450533565788</v>
+        <v>848.0775375275114</v>
       </c>
       <c r="E5" t="n">
-        <v>1041.664813671895</v>
+        <v>848.0775375275114</v>
       </c>
       <c r="F5" t="n">
-        <v>627.5136229820655</v>
+        <v>837.9667508780858</v>
       </c>
       <c r="G5" t="n">
-        <v>211.4096364362535</v>
+        <v>544.2309108389443</v>
       </c>
       <c r="H5" t="n">
         <v>211.4096364362535</v>
       </c>
       <c r="I5" t="n">
-        <v>38.59243764504954</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="J5" t="n">
-        <v>38.59243764504954</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="K5" t="n">
-        <v>182.572249611303</v>
+        <v>278.7328096898323</v>
       </c>
       <c r="L5" t="n">
-        <v>530.4576226962492</v>
+        <v>530.4576226962479</v>
       </c>
       <c r="M5" t="n">
-        <v>923.6967889493371</v>
+        <v>923.6967889493358</v>
       </c>
       <c r="N5" t="n">
-        <v>1302.028147637053</v>
+        <v>1302.028147637051</v>
       </c>
       <c r="O5" t="n">
-        <v>1607.032732109887</v>
+        <v>1607.032732109886</v>
       </c>
       <c r="P5" t="n">
-        <v>1835.18962856594</v>
+        <v>1835.189628565939</v>
       </c>
       <c r="Q5" t="n">
-        <v>1929.621882252477</v>
+        <v>1929.621882252476</v>
       </c>
       <c r="R5" t="n">
-        <v>1929.621882252477</v>
+        <v>1929.621882252476</v>
       </c>
       <c r="S5" t="n">
-        <v>1929.621882252477</v>
+        <v>1929.621882252476</v>
       </c>
       <c r="T5" t="n">
-        <v>1929.621882252477</v>
+        <v>1929.621882252476</v>
       </c>
       <c r="U5" t="n">
-        <v>1929.621882252477</v>
+        <v>1929.621882252476</v>
       </c>
       <c r="V5" t="n">
-        <v>1929.621882252477</v>
+        <v>1592.642608148417</v>
       </c>
       <c r="W5" t="n">
-        <v>1929.621882252477</v>
+        <v>1230.107678006018</v>
       </c>
       <c r="X5" t="n">
-        <v>1929.621882252477</v>
+        <v>848.0775375275114</v>
       </c>
       <c r="Y5" t="n">
-        <v>1929.621882252477</v>
+        <v>848.0775375275114</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>756.2015253880483</v>
+        <v>642.2297506838954</v>
       </c>
       <c r="C6" t="n">
-        <v>756.2015253880483</v>
+        <v>480.5260779248501</v>
       </c>
       <c r="D6" t="n">
-        <v>617.3628883782603</v>
+        <v>341.6874409150622</v>
       </c>
       <c r="E6" t="n">
-        <v>470.3348784351316</v>
+        <v>341.6874409150622</v>
       </c>
       <c r="F6" t="n">
-        <v>335.6410803850059</v>
+        <v>267.2587950750669</v>
       </c>
       <c r="G6" t="n">
-        <v>206.9125804082905</v>
+        <v>138.5302950983515</v>
       </c>
       <c r="H6" t="n">
-        <v>106.9747229549886</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="I6" t="n">
-        <v>38.59243764504954</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="J6" t="n">
-        <v>98.84658417815569</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="K6" t="n">
-        <v>328.3371367383444</v>
+        <v>268.0829902052382</v>
       </c>
       <c r="L6" t="n">
-        <v>694.15898190846</v>
+        <v>599.9729665495455</v>
       </c>
       <c r="M6" t="n">
-        <v>1077.554382407035</v>
+        <v>599.9729665495455</v>
       </c>
       <c r="N6" t="n">
-        <v>1077.554382407035</v>
+        <v>1077.554382407033</v>
       </c>
       <c r="O6" t="n">
-        <v>1469.754333191185</v>
+        <v>1469.754333191184</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.850252466883</v>
+        <v>1771.850252466881</v>
       </c>
       <c r="Q6" t="n">
-        <v>1929.621882252477</v>
+        <v>1929.621882252476</v>
       </c>
       <c r="R6" t="n">
-        <v>1869.837613347423</v>
+        <v>1869.837613347421</v>
       </c>
       <c r="S6" t="n">
-        <v>1869.837613347423</v>
+        <v>1717.038126360162</v>
       </c>
       <c r="T6" t="n">
-        <v>1681.152509513408</v>
+        <v>1528.353022526147</v>
       </c>
       <c r="U6" t="n">
-        <v>1462.657717111718</v>
+        <v>1309.858230124457</v>
       </c>
       <c r="V6" t="n">
-        <v>1234.262094560052</v>
+        <v>1081.462607572791</v>
       </c>
       <c r="W6" t="n">
-        <v>992.946225793362</v>
+        <v>840.1467388061009</v>
       </c>
       <c r="X6" t="n">
-        <v>795.0292376711566</v>
+        <v>642.2297506838954</v>
       </c>
       <c r="Y6" t="n">
-        <v>756.2015253880483</v>
+        <v>642.2297506838954</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>208.2084071833693</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="C7" t="n">
-        <v>38.59243764504954</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="D7" t="n">
-        <v>38.59243764504954</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="E7" t="n">
-        <v>38.59243764504954</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="F7" t="n">
-        <v>38.59243764504954</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="G7" t="n">
-        <v>38.59243764504954</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="H7" t="n">
-        <v>38.59243764504954</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="I7" t="n">
-        <v>38.59243764504954</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="J7" t="n">
-        <v>38.59243764504954</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="K7" t="n">
-        <v>72.19662538969295</v>
+        <v>72.19662538969293</v>
       </c>
       <c r="L7" t="n">
-        <v>172.8037047899525</v>
+        <v>172.8037047899524</v>
       </c>
       <c r="M7" t="n">
-        <v>290.7972109175542</v>
+        <v>290.7972109175541</v>
       </c>
       <c r="N7" t="n">
-        <v>409.2195526671546</v>
+        <v>409.2195526671545</v>
       </c>
       <c r="O7" t="n">
         <v>507.6831991628442</v>
@@ -4756,19 +4756,19 @@
         <v>570.651682890982</v>
       </c>
       <c r="U7" t="n">
-        <v>570.651682890982</v>
+        <v>283.4614433800818</v>
       </c>
       <c r="V7" t="n">
-        <v>309.9163784494046</v>
+        <v>283.4614433800818</v>
       </c>
       <c r="W7" t="n">
-        <v>309.9163784494046</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="X7" t="n">
-        <v>309.9163784494046</v>
+        <v>38.59243764504951</v>
       </c>
       <c r="Y7" t="n">
-        <v>309.9163784494046</v>
+        <v>38.59243764504951</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1035.841947981534</v>
+        <v>942.6610632227039</v>
       </c>
       <c r="C8" t="n">
-        <v>1035.841947981534</v>
+        <v>942.6610632227039</v>
       </c>
       <c r="D8" t="n">
-        <v>1035.841947981534</v>
+        <v>569.8370984499275</v>
       </c>
       <c r="E8" t="n">
-        <v>641.0562280876408</v>
+        <v>569.8370984499275</v>
       </c>
       <c r="F8" t="n">
-        <v>630.9454414382152</v>
+        <v>559.7263118005019</v>
       </c>
       <c r="G8" t="n">
-        <v>214.8414548924032</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H8" t="n">
         <v>214.8414548924032</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>2080.767989267772</v>
       </c>
       <c r="T8" t="n">
-        <v>1823.345543186168</v>
+        <v>2080.767989267772</v>
       </c>
       <c r="U8" t="n">
-        <v>1823.345543186168</v>
+        <v>2080.767989267772</v>
       </c>
       <c r="V8" t="n">
-        <v>1823.345543186168</v>
+        <v>2080.767989267772</v>
       </c>
       <c r="W8" t="n">
-        <v>1823.345543186168</v>
+        <v>1718.233059125372</v>
       </c>
       <c r="X8" t="n">
-        <v>1823.345543186168</v>
+        <v>1336.202918646866</v>
       </c>
       <c r="Y8" t="n">
-        <v>1429.885487499553</v>
+        <v>942.6610632227039</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>921.3370166032433</v>
+        <v>657.9147185764022</v>
       </c>
       <c r="C9" t="n">
-        <v>759.6333438441981</v>
+        <v>496.2110458173569</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>357.3724088075689</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="G9" t="n">
         <v>210.3443988644402</v>
@@ -4881,19 +4881,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>637.3366538315036</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>1122.37000734173</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N9" t="n">
-        <v>1633.635653464852</v>
+        <v>1551.241224490216</v>
       </c>
       <c r="O9" t="n">
         <v>1943.441175274367</v>
@@ -4914,19 +4914,19 @@
         <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1677.483967148646</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1449.08834459698</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1207.77247583029</v>
       </c>
       <c r="X9" t="n">
-        <v>921.3370166032433</v>
+        <v>1009.855487708084</v>
       </c>
       <c r="Y9" t="n">
-        <v>921.3370166032433</v>
+        <v>817.3341613576631</v>
       </c>
     </row>
     <row r="10">
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6402256395189</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="C10" t="n">
         <v>42.02425610119923</v>
@@ -4981,31 +4981,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="Y10" t="n">
-        <v>395.1955943238988</v>
+        <v>172.3146160188864</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1134.697274471332</v>
+        <v>1015.747107326952</v>
       </c>
       <c r="C11" t="n">
-        <v>1134.697274471332</v>
+        <v>728.0652961514031</v>
       </c>
       <c r="D11" t="n">
-        <v>1134.697274471332</v>
+        <v>449.4932788702703</v>
       </c>
       <c r="E11" t="n">
-        <v>834.1635020690823</v>
+        <v>449.4932788702703</v>
       </c>
       <c r="F11" t="n">
-        <v>609.9714078113041</v>
+        <v>449.4932788702703</v>
       </c>
       <c r="G11" t="n">
-        <v>288.1361131018588</v>
+        <v>127.6579841608252</v>
       </c>
       <c r="H11" t="n">
-        <v>49.73826921120887</v>
+        <v>127.6579841608252</v>
       </c>
       <c r="I11" t="n">
         <v>49.73826921120887</v>
       </c>
       <c r="J11" t="n">
-        <v>123.1296878209452</v>
+        <v>215.5060215575051</v>
       </c>
       <c r="K11" t="n">
-        <v>365.3576174313633</v>
+        <v>550.1102849044831</v>
       </c>
       <c r="L11" t="n">
-        <v>715.8327902709473</v>
+        <v>900.5854577440671</v>
       </c>
       <c r="M11" t="n">
-        <v>1111.95360775206</v>
+        <v>1296.70627522518</v>
       </c>
       <c r="N11" t="n">
-        <v>1585.589579533904</v>
+        <v>1677.965913270464</v>
       </c>
       <c r="O11" t="n">
-        <v>1970.866849031283</v>
+        <v>2063.243182767843</v>
       </c>
       <c r="P11" t="n">
-        <v>2293.760020557271</v>
+        <v>2386.136354293831</v>
       </c>
       <c r="Q11" t="n">
         <v>2482.340825639565</v>
@@ -5072,19 +5072,19 @@
         <v>2264.284294029504</v>
       </c>
       <c r="U11" t="n">
-        <v>2264.284294029504</v>
+        <v>2103.652244782719</v>
       </c>
       <c r="V11" t="n">
-        <v>2021.556967417089</v>
+        <v>1871.098190897089</v>
       </c>
       <c r="W11" t="n">
-        <v>2021.556967417089</v>
+        <v>1602.815208246334</v>
       </c>
       <c r="X11" t="n">
-        <v>1733.778774430226</v>
+        <v>1315.037015259471</v>
       </c>
       <c r="Y11" t="n">
-        <v>1434.488866497707</v>
+        <v>1015.747107326952</v>
       </c>
     </row>
     <row r="12">
@@ -5094,31 +5094,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>928.6470881933554</v>
+        <v>848.3399149060974</v>
       </c>
       <c r="C12" t="n">
-        <v>766.9434154343102</v>
+        <v>698.8695874133979</v>
       </c>
       <c r="D12" t="n">
-        <v>628.1047784245222</v>
+        <v>560.0309504036099</v>
       </c>
       <c r="E12" t="n">
-        <v>481.0767684813935</v>
+        <v>413.0029404604812</v>
       </c>
       <c r="F12" t="n">
-        <v>346.3829704312679</v>
+        <v>278.3091424103555</v>
       </c>
       <c r="G12" t="n">
-        <v>217.663429468807</v>
+        <v>149.5896014478947</v>
       </c>
       <c r="H12" t="n">
-        <v>117.8120972321212</v>
+        <v>49.73826921120887</v>
       </c>
       <c r="I12" t="n">
         <v>49.73826921120887</v>
       </c>
       <c r="J12" t="n">
-        <v>49.73826921120887</v>
+        <v>110.8220021572464</v>
       </c>
       <c r="K12" t="n">
         <v>261.423276744456</v>
@@ -5142,28 +5142,28 @@
         <v>2486.913460560444</v>
       </c>
       <c r="R12" t="n">
-        <v>2486.913460560444</v>
+        <v>2427.685436417614</v>
       </c>
       <c r="S12" t="n">
-        <v>2334.28038333357</v>
+        <v>2275.05235919074</v>
       </c>
       <c r="T12" t="n">
-        <v>2145.631390614028</v>
+        <v>2086.403366471198</v>
       </c>
       <c r="U12" t="n">
-        <v>1927.137187621171</v>
+        <v>1867.909163478341</v>
       </c>
       <c r="V12" t="n">
-        <v>1698.741565069505</v>
+        <v>1639.513540926675</v>
       </c>
       <c r="W12" t="n">
-        <v>1478.504845447243</v>
+        <v>1398.197672159985</v>
       </c>
       <c r="X12" t="n">
-        <v>1280.587857325037</v>
+        <v>1200.28068403778</v>
       </c>
       <c r="Y12" t="n">
-        <v>1088.066530974616</v>
+        <v>1007.759357687358</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>348.929501883125</v>
+        <v>125.102291257885</v>
       </c>
       <c r="C13" t="n">
-        <v>348.929501883125</v>
+        <v>49.73826921120887</v>
       </c>
       <c r="D13" t="n">
-        <v>290.1095562025313</v>
+        <v>49.73826921120887</v>
       </c>
       <c r="E13" t="n">
-        <v>232.3524894554937</v>
+        <v>49.73826921120887</v>
       </c>
       <c r="F13" t="n">
-        <v>174.1237819729144</v>
+        <v>49.73826921120887</v>
       </c>
       <c r="G13" t="n">
-        <v>99.46349176900617</v>
+        <v>49.73826921120887</v>
       </c>
       <c r="H13" t="n">
-        <v>99.46349176900617</v>
+        <v>49.73826921120887</v>
       </c>
       <c r="I13" t="n">
         <v>49.73826921120887</v>
       </c>
       <c r="J13" t="n">
-        <v>83.77295926526452</v>
+        <v>83.77295926526457</v>
       </c>
       <c r="K13" t="n">
-        <v>210.6087495947182</v>
+        <v>210.6087495947184</v>
       </c>
       <c r="L13" t="n">
-        <v>404.6866123985398</v>
+        <v>404.68661239854</v>
       </c>
       <c r="M13" t="n">
-        <v>616.2103959833886</v>
+        <v>616.2103959833887</v>
       </c>
       <c r="N13" t="n">
-        <v>828.1355769877491</v>
+        <v>828.1355769877493</v>
       </c>
       <c r="O13" t="n">
-        <v>1020.016067396258</v>
+        <v>1020.016067396259</v>
       </c>
       <c r="P13" t="n">
         <v>1176.251221070434</v>
       </c>
       <c r="Q13" t="n">
-        <v>1231.473529195198</v>
+        <v>1231.473529195199</v>
       </c>
       <c r="R13" t="n">
-        <v>1231.473529195198</v>
+        <v>1231.473529195199</v>
       </c>
       <c r="S13" t="n">
-        <v>1231.473529195198</v>
+        <v>1112.146609231064</v>
       </c>
       <c r="T13" t="n">
-        <v>1231.473529195198</v>
+        <v>973.2516957220333</v>
       </c>
       <c r="U13" t="n">
-        <v>1038.535646863392</v>
+        <v>780.3138133902277</v>
       </c>
       <c r="V13" t="n">
-        <v>872.0522899134587</v>
+        <v>613.8304564402939</v>
       </c>
       <c r="W13" t="n">
-        <v>680.1478359225014</v>
+        <v>421.9260024493367</v>
       </c>
       <c r="X13" t="n">
-        <v>543.147319309521</v>
+        <v>284.9254858363561</v>
       </c>
       <c r="Y13" t="n">
-        <v>438.2329230758613</v>
+        <v>157.1422745202768</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1314.0460744266</v>
+        <v>775.4814925252394</v>
       </c>
       <c r="C14" t="n">
-        <v>1035.076669494982</v>
+        <v>496.5120875936212</v>
       </c>
       <c r="D14" t="n">
-        <v>1035.076669494982</v>
+        <v>410.7669440752131</v>
       </c>
       <c r="E14" t="n">
-        <v>743.2553033366637</v>
+        <v>118.9455779168944</v>
       </c>
       <c r="F14" t="n">
-        <v>432.0684663824085</v>
+        <v>118.9455779168944</v>
       </c>
       <c r="G14" t="n">
-        <v>118.9455779168943</v>
+        <v>118.9455779168944</v>
       </c>
       <c r="H14" t="n">
-        <v>118.9455779168943</v>
+        <v>118.9455779168944</v>
       </c>
       <c r="I14" t="n">
         <v>49.73826921120887</v>
       </c>
       <c r="J14" t="n">
-        <v>166.4811642456588</v>
+        <v>224.0450509171818</v>
       </c>
       <c r="K14" t="n">
-        <v>408.7090938560769</v>
+        <v>522.7361212328696</v>
       </c>
       <c r="L14" t="n">
-        <v>860.0996297918974</v>
+        <v>873.2112940724535</v>
       </c>
       <c r="M14" t="n">
-        <v>1256.22044727301</v>
+        <v>1370.247474649803</v>
       </c>
       <c r="N14" t="n">
-        <v>1738.39544841453</v>
+        <v>1852.422475791323</v>
       </c>
       <c r="O14" t="n">
-        <v>2147.080487144726</v>
+        <v>2160.192151425282</v>
       </c>
       <c r="P14" t="n">
-        <v>2377.597324934154</v>
+        <v>2390.70898921471</v>
       </c>
       <c r="Q14" t="n">
-        <v>2473.801796279888</v>
+        <v>2486.913460560444</v>
       </c>
       <c r="R14" t="n">
         <v>2486.913460560444</v>
@@ -5306,22 +5306,22 @@
         <v>2403.030400681754</v>
       </c>
       <c r="T14" t="n">
-        <v>2403.030400681754</v>
+        <v>2281.709106517365</v>
       </c>
       <c r="U14" t="n">
-        <v>2251.1107576789</v>
+        <v>2129.789463514513</v>
       </c>
       <c r="V14" t="n">
-        <v>2143.761623358801</v>
+        <v>1895.774543146029</v>
       </c>
       <c r="W14" t="n">
-        <v>1884.191046951977</v>
+        <v>1636.203966739204</v>
       </c>
       <c r="X14" t="n">
-        <v>1605.125260209045</v>
+        <v>1357.138179996272</v>
       </c>
       <c r="Y14" t="n">
-        <v>1605.125260209045</v>
+        <v>1066.560678307684</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>860.5732601724432</v>
+        <v>848.3399149060974</v>
       </c>
       <c r="C15" t="n">
-        <v>698.8695874133979</v>
+        <v>686.6362421470521</v>
       </c>
       <c r="D15" t="n">
-        <v>560.0309504036099</v>
+        <v>547.7976051372642</v>
       </c>
       <c r="E15" t="n">
-        <v>413.0029404604812</v>
+        <v>481.0767684813935</v>
       </c>
       <c r="F15" t="n">
-        <v>278.3091424103555</v>
+        <v>346.3829704312679</v>
       </c>
       <c r="G15" t="n">
-        <v>149.5896014478947</v>
+        <v>217.663429468807</v>
       </c>
       <c r="H15" t="n">
-        <v>49.73826921120887</v>
+        <v>117.8120972321212</v>
       </c>
       <c r="I15" t="n">
         <v>49.73826921120887</v>
       </c>
       <c r="J15" t="n">
-        <v>49.73826921120887</v>
+        <v>110.8220021572464</v>
       </c>
       <c r="K15" t="n">
-        <v>261.423276744456</v>
+        <v>341.7304500317147</v>
       </c>
       <c r="L15" t="n">
-        <v>629.1516571437703</v>
+        <v>709.458830431029</v>
       </c>
       <c r="M15" t="n">
-        <v>1116.409847341014</v>
+        <v>1196.717020628273</v>
       </c>
       <c r="N15" t="n">
-        <v>1629.959214958051</v>
+        <v>1710.26638824531</v>
       </c>
       <c r="O15" t="n">
-        <v>2024.248324747926</v>
+        <v>2104.555498035184</v>
       </c>
       <c r="P15" t="n">
         <v>2328.020978309228</v>
@@ -5388,19 +5388,19 @@
         <v>2086.403366471198</v>
       </c>
       <c r="U15" t="n">
-        <v>1880.142508744687</v>
+        <v>1867.909163478341</v>
       </c>
       <c r="V15" t="n">
-        <v>1651.746886193021</v>
+        <v>1639.513540926675</v>
       </c>
       <c r="W15" t="n">
-        <v>1410.431017426331</v>
+        <v>1398.197672159985</v>
       </c>
       <c r="X15" t="n">
-        <v>1212.514029304125</v>
+        <v>1200.28068403778</v>
       </c>
       <c r="Y15" t="n">
-        <v>1019.992702953704</v>
+        <v>1007.759357687358</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>206.9190025664689</v>
+        <v>166.4974244506169</v>
       </c>
       <c r="C16" t="n">
-        <v>140.2673867637237</v>
+        <v>99.84580864787168</v>
       </c>
       <c r="D16" t="n">
-        <v>140.2673867637237</v>
+        <v>49.73826921120887</v>
       </c>
       <c r="E16" t="n">
-        <v>140.2673867637237</v>
+        <v>49.73826921120887</v>
       </c>
       <c r="F16" t="n">
-        <v>90.75108552507523</v>
+        <v>49.73826921120887</v>
       </c>
       <c r="G16" t="n">
-        <v>90.75108552507523</v>
+        <v>49.73826921120887</v>
       </c>
       <c r="H16" t="n">
-        <v>90.75108552507523</v>
+        <v>49.73826921120887</v>
       </c>
       <c r="I16" t="n">
         <v>49.73826921120887</v>
       </c>
       <c r="J16" t="n">
-        <v>92.31198862494122</v>
+        <v>92.31198862494118</v>
       </c>
       <c r="K16" t="n">
-        <v>227.6868083140717</v>
+        <v>227.6868083140716</v>
       </c>
       <c r="L16" t="n">
-        <v>430.3037004775699</v>
+        <v>430.3037004775698</v>
       </c>
       <c r="M16" t="n">
-        <v>650.3665134220954</v>
+        <v>650.3665134220953</v>
       </c>
       <c r="N16" t="n">
-        <v>870.8307237861327</v>
+        <v>870.8307237861325</v>
       </c>
       <c r="O16" t="n">
-        <v>1071.250243554319</v>
+        <v>1071.250243554318</v>
       </c>
       <c r="P16" t="n">
-        <v>1236.024426588171</v>
+        <v>1236.02442658817</v>
       </c>
       <c r="Q16" t="n">
         <v>1299.785764072612</v>
       </c>
       <c r="R16" t="n">
-        <v>1299.785764072612</v>
+        <v>1253.566055444516</v>
       </c>
       <c r="S16" t="n">
-        <v>1190.239914762476</v>
+        <v>1142.951541724312</v>
       </c>
       <c r="T16" t="n">
-        <v>1060.057407497377</v>
+        <v>1012.769034459213</v>
       </c>
       <c r="U16" t="n">
-        <v>875.8319314095017</v>
+        <v>828.5435583713377</v>
       </c>
       <c r="V16" t="n">
-        <v>718.0609807034988</v>
+        <v>670.7726076653348</v>
       </c>
       <c r="W16" t="n">
-        <v>534.8689329564725</v>
+        <v>487.5805599183084</v>
       </c>
       <c r="X16" t="n">
-        <v>406.5808225874227</v>
+        <v>359.2924495492589</v>
       </c>
       <c r="Y16" t="n">
-        <v>287.5100175152742</v>
+        <v>247.0884393994223</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1119.37786594479</v>
       </c>
       <c r="D17" t="n">
-        <v>918.7255636132738</v>
+        <v>918.7255636132734</v>
       </c>
       <c r="E17" t="n">
-        <v>696.1115061606406</v>
+        <v>696.1115061606401</v>
       </c>
       <c r="F17" t="n">
-        <v>454.131977912071</v>
+        <v>454.1319779120705</v>
       </c>
       <c r="G17" t="n">
-        <v>210.2163981522422</v>
+        <v>210.2163981522424</v>
       </c>
       <c r="H17" t="n">
         <v>49.73826921120887</v>
@@ -5513,34 +5513,34 @@
         <v>49.73826921120887</v>
       </c>
       <c r="J17" t="n">
-        <v>123.1296878209452</v>
+        <v>291.8751341796241</v>
       </c>
       <c r="K17" t="n">
-        <v>365.3576174313633</v>
+        <v>534.1030637900421</v>
       </c>
       <c r="L17" t="n">
-        <v>715.8327902709473</v>
+        <v>884.5782366296261</v>
       </c>
       <c r="M17" t="n">
-        <v>1111.95360775206</v>
+        <v>1280.699054110739</v>
       </c>
       <c r="N17" t="n">
-        <v>1493.213245797344</v>
+        <v>1661.958692156023</v>
       </c>
       <c r="O17" t="n">
-        <v>1800.982921431303</v>
+        <v>1991.446705066603</v>
       </c>
       <c r="P17" t="n">
-        <v>2200.24520557941</v>
+        <v>2221.963542856031</v>
       </c>
       <c r="Q17" t="n">
-        <v>2465.195123283822</v>
+        <v>2486.913460560444</v>
       </c>
       <c r="R17" t="n">
         <v>2486.913460560444</v>
       </c>
       <c r="S17" t="n">
-        <v>2472.23770938744</v>
+        <v>2472.237709387439</v>
       </c>
       <c r="T17" t="n">
         <v>2420.123723928737</v>
@@ -5549,10 +5549,10 @@
         <v>2337.411389631568</v>
       </c>
       <c r="V17" t="n">
-        <v>2172.60377796877</v>
+        <v>2172.603777968769</v>
       </c>
       <c r="W17" t="n">
-        <v>1982.240510267631</v>
+        <v>1982.24051026763</v>
       </c>
       <c r="X17" t="n">
         <v>1772.382032230384</v>
@@ -5577,40 +5577,40 @@
         <v>547.7976051372642</v>
       </c>
       <c r="E18" t="n">
-        <v>400.7695951941354</v>
+        <v>413.0029404604812</v>
       </c>
       <c r="F18" t="n">
-        <v>346.3829704312679</v>
+        <v>278.3091424103555</v>
       </c>
       <c r="G18" t="n">
-        <v>217.663429468807</v>
+        <v>149.5896014478947</v>
       </c>
       <c r="H18" t="n">
-        <v>117.8120972321212</v>
+        <v>49.73826921120887</v>
       </c>
       <c r="I18" t="n">
         <v>49.73826921120887</v>
       </c>
       <c r="J18" t="n">
-        <v>49.73826921120887</v>
+        <v>110.8220021572464</v>
       </c>
       <c r="K18" t="n">
-        <v>280.6467170856771</v>
+        <v>341.7304500317147</v>
       </c>
       <c r="L18" t="n">
-        <v>648.3750974849914</v>
+        <v>709.458830431029</v>
       </c>
       <c r="M18" t="n">
-        <v>1135.633287682236</v>
+        <v>1196.717020628273</v>
       </c>
       <c r="N18" t="n">
-        <v>1649.182655299272</v>
+        <v>1710.26638824531</v>
       </c>
       <c r="O18" t="n">
-        <v>2043.471765089147</v>
+        <v>2024.248324747926</v>
       </c>
       <c r="P18" t="n">
-        <v>2347.244418650449</v>
+        <v>2328.020978309228</v>
       </c>
       <c r="Q18" t="n">
         <v>2486.913460560444</v>
@@ -5671,22 +5671,22 @@
         <v>49.73826921120887</v>
       </c>
       <c r="J19" t="n">
-        <v>51.7949660961264</v>
+        <v>49.73826921120887</v>
       </c>
       <c r="K19" t="n">
-        <v>86.25442268902026</v>
+        <v>84.19772580410273</v>
       </c>
       <c r="L19" t="n">
-        <v>187.9559517562819</v>
+        <v>185.8992548713644</v>
       </c>
       <c r="M19" t="n">
-        <v>307.1034016045709</v>
+        <v>305.0467047196533</v>
       </c>
       <c r="N19" t="n">
-        <v>426.6522488723715</v>
+        <v>424.595551987454</v>
       </c>
       <c r="O19" t="n">
-        <v>526.1564055443208</v>
+        <v>524.0997086594033</v>
       </c>
       <c r="P19" t="n">
         <v>590.0152254819362</v>
@@ -5732,13 +5732,13 @@
         <v>1119.37786594479</v>
       </c>
       <c r="D20" t="n">
-        <v>918.7255636132736</v>
+        <v>918.7255636132743</v>
       </c>
       <c r="E20" t="n">
-        <v>696.1115061606404</v>
+        <v>696.1115061606409</v>
       </c>
       <c r="F20" t="n">
-        <v>454.1319779120706</v>
+        <v>454.1319779120712</v>
       </c>
       <c r="G20" t="n">
         <v>210.2163981522424</v>
@@ -5750,31 +5750,31 @@
         <v>49.73826921120887</v>
       </c>
       <c r="J20" t="n">
-        <v>291.8751341796241</v>
+        <v>123.1296878209452</v>
       </c>
       <c r="K20" t="n">
-        <v>534.1030637900421</v>
+        <v>365.3576174313633</v>
       </c>
       <c r="L20" t="n">
-        <v>884.5782366296261</v>
+        <v>715.8327902709473</v>
       </c>
       <c r="M20" t="n">
-        <v>1280.699054110739</v>
+        <v>1111.95360775206</v>
       </c>
       <c r="N20" t="n">
-        <v>1661.958692156023</v>
+        <v>1493.213245797344</v>
       </c>
       <c r="O20" t="n">
-        <v>1969.728367789981</v>
+        <v>1800.982921431303</v>
       </c>
       <c r="P20" t="n">
         <v>2200.24520557941</v>
       </c>
       <c r="Q20" t="n">
-        <v>2405.971713017445</v>
+        <v>2465.195123283822</v>
       </c>
       <c r="R20" t="n">
-        <v>2486.913460560443</v>
+        <v>2486.913460560444</v>
       </c>
       <c r="S20" t="n">
         <v>2472.237709387439</v>
@@ -5783,7 +5783,7 @@
         <v>2420.123723928737</v>
       </c>
       <c r="U20" t="n">
-        <v>2337.411389631568</v>
+        <v>2337.411389631569</v>
       </c>
       <c r="V20" t="n">
         <v>2172.60377796877</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>928.6470881933554</v>
+        <v>848.3399149060974</v>
       </c>
       <c r="C21" t="n">
-        <v>766.9434154343102</v>
+        <v>686.6362421470521</v>
       </c>
       <c r="D21" t="n">
-        <v>628.1047784245222</v>
+        <v>547.7976051372642</v>
       </c>
       <c r="E21" t="n">
-        <v>481.0767684813935</v>
+        <v>400.7695951941354</v>
       </c>
       <c r="F21" t="n">
-        <v>346.3829704312678</v>
+        <v>266.0757971440098</v>
       </c>
       <c r="G21" t="n">
-        <v>217.663429468807</v>
+        <v>137.3562561815489</v>
       </c>
       <c r="H21" t="n">
         <v>117.8120972321212</v>
@@ -5829,52 +5829,52 @@
         <v>49.73826921120887</v>
       </c>
       <c r="J21" t="n">
-        <v>49.73826921120887</v>
+        <v>110.8220021572464</v>
       </c>
       <c r="K21" t="n">
-        <v>280.6467170856771</v>
+        <v>341.7304500317147</v>
       </c>
       <c r="L21" t="n">
-        <v>648.3750974849914</v>
+        <v>629.1516571437703</v>
       </c>
       <c r="M21" t="n">
-        <v>1135.633287682236</v>
+        <v>1116.409847341014</v>
       </c>
       <c r="N21" t="n">
-        <v>1649.182655299272</v>
+        <v>1629.959214958051</v>
       </c>
       <c r="O21" t="n">
-        <v>2043.471765089147</v>
+        <v>2024.248324747926</v>
       </c>
       <c r="P21" t="n">
-        <v>2347.244418650449</v>
+        <v>2328.020978309228</v>
       </c>
       <c r="Q21" t="n">
-        <v>2486.913460560443</v>
+        <v>2486.913460560444</v>
       </c>
       <c r="R21" t="n">
-        <v>2486.913460560443</v>
+        <v>2427.685436417614</v>
       </c>
       <c r="S21" t="n">
-        <v>2355.359532477998</v>
+        <v>2275.05235919074</v>
       </c>
       <c r="T21" t="n">
-        <v>2166.710539758456</v>
+        <v>2086.403366471198</v>
       </c>
       <c r="U21" t="n">
-        <v>1948.216336765599</v>
+        <v>1867.909163478341</v>
       </c>
       <c r="V21" t="n">
-        <v>1719.820714213933</v>
+        <v>1639.513540926675</v>
       </c>
       <c r="W21" t="n">
-        <v>1478.504845447243</v>
+        <v>1398.197672159985</v>
       </c>
       <c r="X21" t="n">
-        <v>1280.587857325037</v>
+        <v>1200.28068403778</v>
       </c>
       <c r="Y21" t="n">
-        <v>1088.066530974616</v>
+        <v>1007.759357687358</v>
       </c>
     </row>
     <row r="22">
@@ -5908,28 +5908,28 @@
         <v>49.73826921120887</v>
       </c>
       <c r="J22" t="n">
-        <v>49.73826921120887</v>
+        <v>51.7949660961264</v>
       </c>
       <c r="K22" t="n">
-        <v>84.19772580410273</v>
+        <v>86.25442268902026</v>
       </c>
       <c r="L22" t="n">
-        <v>185.8992548713644</v>
+        <v>187.9559517562819</v>
       </c>
       <c r="M22" t="n">
-        <v>305.0467047196533</v>
+        <v>307.1034016045709</v>
       </c>
       <c r="N22" t="n">
-        <v>424.595551987454</v>
+        <v>426.6522488723715</v>
       </c>
       <c r="O22" t="n">
-        <v>524.0997086594033</v>
+        <v>526.1564055443208</v>
       </c>
       <c r="P22" t="n">
-        <v>587.9585285970187</v>
+        <v>590.0152254819362</v>
       </c>
       <c r="Q22" t="n">
-        <v>587.9585285970187</v>
+        <v>590.0152254819362</v>
       </c>
       <c r="R22" t="n">
         <v>590.0152254819362</v>
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1329.139962170723</v>
+        <v>1329.139962170724</v>
       </c>
       <c r="C23" t="n">
-        <v>1119.37786594479</v>
+        <v>1119.377865944791</v>
       </c>
       <c r="D23" t="n">
-        <v>918.7255636132738</v>
+        <v>918.7255636132747</v>
       </c>
       <c r="E23" t="n">
-        <v>696.1115061606406</v>
+        <v>696.1115061606408</v>
       </c>
       <c r="F23" t="n">
-        <v>454.131977912071</v>
+        <v>454.1319779120712</v>
       </c>
       <c r="G23" t="n">
-        <v>210.2163981522422</v>
+        <v>210.2163981522424</v>
       </c>
       <c r="H23" t="n">
-        <v>49.73826921120887</v>
+        <v>49.73826921120891</v>
       </c>
       <c r="I23" t="n">
-        <v>49.73826921120887</v>
+        <v>49.73826921120891</v>
       </c>
       <c r="J23" t="n">
-        <v>291.8751341796241</v>
+        <v>123.1296878209452</v>
       </c>
       <c r="K23" t="n">
         <v>534.1030637900421</v>
@@ -6002,37 +6002,37 @@
         <v>1661.958692156023</v>
       </c>
       <c r="O23" t="n">
-        <v>1969.728367789981</v>
+        <v>2079.250403882285</v>
       </c>
       <c r="P23" t="n">
-        <v>2309.767241671712</v>
+        <v>2309.767241671714</v>
       </c>
       <c r="Q23" t="n">
-        <v>2405.971713017445</v>
+        <v>2405.971713017447</v>
       </c>
       <c r="R23" t="n">
-        <v>2486.913460560444</v>
+        <v>2486.913460560445</v>
       </c>
       <c r="S23" t="n">
-        <v>2472.237709387439</v>
+        <v>2472.237709387441</v>
       </c>
       <c r="T23" t="n">
-        <v>2420.123723928737</v>
+        <v>2420.123723928738</v>
       </c>
       <c r="U23" t="n">
-        <v>2337.411389631568</v>
+        <v>2337.41138963157</v>
       </c>
       <c r="V23" t="n">
-        <v>2172.60377796877</v>
+        <v>2172.603777968771</v>
       </c>
       <c r="W23" t="n">
-        <v>1982.240510267631</v>
+        <v>1982.240510267632</v>
       </c>
       <c r="X23" t="n">
-        <v>1772.382032230384</v>
+        <v>1772.382032230385</v>
       </c>
       <c r="Y23" t="n">
-        <v>1551.011839247482</v>
+        <v>1551.011839247483</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>848.3399149060974</v>
+        <v>848.3399149060992</v>
       </c>
       <c r="C24" t="n">
-        <v>686.6362421470521</v>
+        <v>686.636242147054</v>
       </c>
       <c r="D24" t="n">
-        <v>547.7976051372642</v>
+        <v>547.797605137266</v>
       </c>
       <c r="E24" t="n">
-        <v>400.7695951941354</v>
+        <v>400.7695951941373</v>
       </c>
       <c r="F24" t="n">
-        <v>266.0757971440098</v>
+        <v>266.0757971440116</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3562561815489</v>
+        <v>137.3562561815507</v>
       </c>
       <c r="H24" t="n">
-        <v>49.73826921120887</v>
+        <v>49.73826921120891</v>
       </c>
       <c r="I24" t="n">
-        <v>49.73826921120887</v>
+        <v>49.73826921120891</v>
       </c>
       <c r="J24" t="n">
-        <v>110.8220021572464</v>
+        <v>110.8220021572465</v>
       </c>
       <c r="K24" t="n">
         <v>341.7304500317147</v>
       </c>
       <c r="L24" t="n">
-        <v>709.458830431029</v>
+        <v>709.4588304310291</v>
       </c>
       <c r="M24" t="n">
         <v>1196.717020628273</v>
       </c>
       <c r="N24" t="n">
-        <v>1710.26638824531</v>
+        <v>1629.959214958053</v>
       </c>
       <c r="O24" t="n">
-        <v>2024.248324747926</v>
+        <v>2024.248324747928</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.020978309228</v>
+        <v>2328.02097830923</v>
       </c>
       <c r="Q24" t="n">
-        <v>2486.913460560444</v>
+        <v>2486.913460560445</v>
       </c>
       <c r="R24" t="n">
-        <v>2427.685436417614</v>
+        <v>2427.685436417616</v>
       </c>
       <c r="S24" t="n">
-        <v>2275.05235919074</v>
+        <v>2275.052359190742</v>
       </c>
       <c r="T24" t="n">
-        <v>2086.403366471198</v>
+        <v>2086.4033664712</v>
       </c>
       <c r="U24" t="n">
-        <v>1867.909163478341</v>
+        <v>1867.909163478343</v>
       </c>
       <c r="V24" t="n">
-        <v>1639.513540926675</v>
+        <v>1639.513540926677</v>
       </c>
       <c r="W24" t="n">
-        <v>1398.197672159985</v>
+        <v>1398.197672159987</v>
       </c>
       <c r="X24" t="n">
-        <v>1200.28068403778</v>
+        <v>1200.280684037781</v>
       </c>
       <c r="Y24" t="n">
-        <v>1007.759357687358</v>
+        <v>1007.75935768736</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.73826921120887</v>
+        <v>49.73826921120891</v>
       </c>
       <c r="C25" t="n">
-        <v>51.7949660961264</v>
+        <v>49.73826921120891</v>
       </c>
       <c r="D25" t="n">
-        <v>51.7949660961264</v>
+        <v>49.73826921120891</v>
       </c>
       <c r="E25" t="n">
-        <v>51.7949660961264</v>
+        <v>51.79496609612652</v>
       </c>
       <c r="F25" t="n">
-        <v>51.7949660961264</v>
+        <v>51.79496609612652</v>
       </c>
       <c r="G25" t="n">
-        <v>51.7949660961264</v>
+        <v>51.79496609612652</v>
       </c>
       <c r="H25" t="n">
-        <v>51.7949660961264</v>
+        <v>51.79496609612652</v>
       </c>
       <c r="I25" t="n">
-        <v>51.7949660961264</v>
+        <v>51.79496609612652</v>
       </c>
       <c r="J25" t="n">
-        <v>51.7949660961264</v>
+        <v>51.79496609612652</v>
       </c>
       <c r="K25" t="n">
-        <v>86.25442268902026</v>
+        <v>86.25442268902037</v>
       </c>
       <c r="L25" t="n">
-        <v>187.9559517562819</v>
+        <v>187.955951756282</v>
       </c>
       <c r="M25" t="n">
-        <v>307.1034016045709</v>
+        <v>307.103401604571</v>
       </c>
       <c r="N25" t="n">
-        <v>426.6522488723715</v>
+        <v>426.6522488723716</v>
       </c>
       <c r="O25" t="n">
-        <v>526.1564055443208</v>
+        <v>526.1564055443209</v>
       </c>
       <c r="P25" t="n">
-        <v>590.0152254819362</v>
+        <v>590.0152254819363</v>
       </c>
       <c r="Q25" t="n">
-        <v>590.0152254819362</v>
+        <v>590.0152254819363</v>
       </c>
       <c r="R25" t="n">
-        <v>590.0152254819362</v>
+        <v>590.0152254819363</v>
       </c>
       <c r="S25" t="n">
-        <v>548.608020467418</v>
+        <v>548.6080204674181</v>
       </c>
       <c r="T25" t="n">
-        <v>487.6328219080036</v>
+        <v>487.6328219080037</v>
       </c>
       <c r="U25" t="n">
-        <v>372.6146545258143</v>
+        <v>372.6146545258144</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0510125254968</v>
+        <v>284.051012525497</v>
       </c>
       <c r="W25" t="n">
-        <v>170.0662734841559</v>
+        <v>170.066273484156</v>
       </c>
       <c r="X25" t="n">
         <v>110.9854718207917</v>
       </c>
       <c r="Y25" t="n">
-        <v>61.12197545432873</v>
+        <v>61.12197545432877</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1634.269411654268</v>
+        <v>1634.269411654269</v>
       </c>
       <c r="C26" t="n">
-        <v>1382.743787426398</v>
+        <v>1382.743787426399</v>
       </c>
       <c r="D26" t="n">
         <v>1140.327957092944</v>
       </c>
       <c r="E26" t="n">
-        <v>875.9503716383724</v>
+        <v>875.9503716383732</v>
       </c>
       <c r="F26" t="n">
-        <v>592.2073153878653</v>
+        <v>592.2073153878657</v>
       </c>
       <c r="G26" t="n">
-        <v>306.5282076260987</v>
+        <v>306.5282076260992</v>
       </c>
       <c r="H26" t="n">
         <v>104.2865506831277</v>
@@ -6224,7 +6224,7 @@
         <v>62.52302268118984</v>
       </c>
       <c r="J26" t="n">
-        <v>186.8761896178166</v>
+        <v>263.7274538549058</v>
       </c>
       <c r="K26" t="n">
         <v>556.9171317922144</v>
@@ -6254,10 +6254,10 @@
         <v>3069.71185488455</v>
       </c>
       <c r="T26" t="n">
-        <v>2975.834341423909</v>
+        <v>2975.83434142391</v>
       </c>
       <c r="U26" t="n">
-        <v>2851.358479124803</v>
+        <v>2851.358479124804</v>
       </c>
       <c r="V26" t="n">
         <v>2644.787339460067</v>
@@ -6266,10 +6266,10 @@
         <v>2412.66054375699</v>
       </c>
       <c r="X26" t="n">
-        <v>2161.038537717805</v>
+        <v>2161.038537717806</v>
       </c>
       <c r="Y26" t="n">
-        <v>1897.904816732965</v>
+        <v>1897.904816732966</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.4318416633375</v>
+        <v>941.4318416633365</v>
       </c>
       <c r="C27" t="n">
-        <v>779.7281689042923</v>
+        <v>779.7281689042912</v>
       </c>
       <c r="D27" t="n">
-        <v>640.8895318945043</v>
+        <v>640.8895318945033</v>
       </c>
       <c r="E27" t="n">
-        <v>493.8615219513756</v>
+        <v>493.8615219513745</v>
       </c>
       <c r="F27" t="n">
-        <v>359.1677239012499</v>
+        <v>359.1677239012488</v>
       </c>
       <c r="G27" t="n">
-        <v>230.448182938789</v>
+        <v>230.448182938788</v>
       </c>
       <c r="H27" t="n">
-        <v>130.5968507021032</v>
+        <v>130.5968507021022</v>
       </c>
       <c r="I27" t="n">
         <v>62.52302268118984</v>
@@ -6306,49 +6306,49 @@
         <v>123.6067556272274</v>
       </c>
       <c r="K27" t="n">
-        <v>354.5152035016956</v>
+        <v>354.5152035016949</v>
       </c>
       <c r="L27" t="n">
-        <v>722.24358390101</v>
+        <v>722.2435839010093</v>
       </c>
       <c r="M27" t="n">
-        <v>1209.501774098254</v>
+        <v>1209.501774098253</v>
       </c>
       <c r="N27" t="n">
-        <v>1723.051141715291</v>
+        <v>1723.05114171529</v>
       </c>
       <c r="O27" t="n">
-        <v>2117.340251505166</v>
+        <v>2117.340251505165</v>
       </c>
       <c r="P27" t="n">
-        <v>2421.112905066468</v>
+        <v>2421.112905066467</v>
       </c>
       <c r="Q27" t="n">
         <v>2580.005387317683</v>
       </c>
       <c r="R27" t="n">
-        <v>2520.777363174854</v>
+        <v>2520.777363174853</v>
       </c>
       <c r="S27" t="n">
-        <v>2368.14428594798</v>
+        <v>2368.144285947979</v>
       </c>
       <c r="T27" t="n">
-        <v>2179.495293228438</v>
+        <v>2179.495293228437</v>
       </c>
       <c r="U27" t="n">
-        <v>1961.001090235581</v>
+        <v>1961.00109023558</v>
       </c>
       <c r="V27" t="n">
-        <v>1732.605467683915</v>
+        <v>1732.605467683914</v>
       </c>
       <c r="W27" t="n">
-        <v>1491.289598917225</v>
+        <v>1491.289598917224</v>
       </c>
       <c r="X27" t="n">
         <v>1293.372610795019</v>
       </c>
       <c r="Y27" t="n">
-        <v>1100.851284444598</v>
+        <v>1100.851284444597</v>
       </c>
     </row>
     <row r="28">
@@ -6382,25 +6382,25 @@
         <v>62.52302268118984</v>
       </c>
       <c r="J28" t="n">
-        <v>62.52302268118984</v>
+        <v>131.9943915626653</v>
       </c>
       <c r="K28" t="n">
-        <v>224.7954918380633</v>
+        <v>166.4538481555591</v>
       </c>
       <c r="L28" t="n">
-        <v>454.3100334693046</v>
+        <v>356.7016842336164</v>
       </c>
       <c r="M28" t="n">
-        <v>640.8161722576803</v>
+        <v>475.8491340819054</v>
       </c>
       <c r="N28" t="n">
-        <v>760.3650195254809</v>
+        <v>723.2109939136857</v>
       </c>
       <c r="O28" t="n">
-        <v>859.8691761974302</v>
+        <v>950.5281631496147</v>
       </c>
       <c r="P28" t="n">
-        <v>1051.541008699025</v>
+        <v>1142.19999565121</v>
       </c>
       <c r="Q28" t="n">
         <v>1142.19999565121</v>
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1695.256255361786</v>
+        <v>1564.570161702821</v>
       </c>
       <c r="C29" t="n">
-        <v>1435.018224889985</v>
+        <v>1304.33213123102</v>
       </c>
       <c r="D29" t="n">
-        <v>1183.889988312599</v>
+        <v>1053.203894653635</v>
       </c>
       <c r="E29" t="n">
-        <v>910.7999966140967</v>
+        <v>780.113902955133</v>
       </c>
       <c r="F29" t="n">
-        <v>618.3445341196584</v>
+        <v>618.3445341196582</v>
       </c>
       <c r="G29" t="n">
-        <v>323.9530201139609</v>
+        <v>323.9530201139607</v>
       </c>
       <c r="H29" t="n">
-        <v>112.9989569270586</v>
+        <v>112.9989569270585</v>
       </c>
       <c r="I29" t="n">
         <v>62.52302268118984</v>
       </c>
       <c r="J29" t="n">
-        <v>255.1884244952294</v>
+        <v>255.1884244952292</v>
       </c>
       <c r="K29" t="n">
         <v>616.6903373099503</v>
@@ -6473,16 +6473,16 @@
         <v>1601.834294039253</v>
       </c>
       <c r="N29" t="n">
-        <v>2102.36791528884</v>
+        <v>2102.367915288839</v>
       </c>
       <c r="O29" t="n">
-        <v>2529.411574127102</v>
+        <v>2529.411574127101</v>
       </c>
       <c r="P29" t="n">
         <v>2879.202395120833</v>
       </c>
       <c r="Q29" t="n">
-        <v>3094.68084967087</v>
+        <v>3094.680849670869</v>
       </c>
       <c r="R29" t="n">
         <v>3126.151134059492</v>
@@ -6494,19 +6494,19 @@
         <v>2958.409528936047</v>
       </c>
       <c r="U29" t="n">
-        <v>2955.907354051975</v>
+        <v>2825.22126039301</v>
       </c>
       <c r="V29" t="n">
-        <v>2740.623808143308</v>
+        <v>2609.937714484343</v>
       </c>
       <c r="W29" t="n">
-        <v>2499.7846061963</v>
+        <v>2369.098512537335</v>
       </c>
       <c r="X29" t="n">
-        <v>2239.450193913185</v>
+        <v>2108.76410025422</v>
       </c>
       <c r="Y29" t="n">
-        <v>1967.604066684414</v>
+        <v>1836.917973025449</v>
       </c>
     </row>
     <row r="30">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>310.0257311481489</v>
+        <v>310.0257311481485</v>
       </c>
       <c r="C31" t="n">
-        <v>262.1054898052204</v>
+        <v>262.1054898052201</v>
       </c>
       <c r="D31" t="n">
-        <v>230.7293248283743</v>
+        <v>230.7293248283741</v>
       </c>
       <c r="E31" t="n">
-        <v>200.4160387850844</v>
+        <v>200.4160387850842</v>
       </c>
       <c r="F31" t="n">
-        <v>169.6311120062527</v>
+        <v>169.6311120062526</v>
       </c>
       <c r="G31" t="n">
-        <v>122.4146025060922</v>
+        <v>122.4146025060921</v>
       </c>
       <c r="H31" t="n">
-        <v>84.80446453523948</v>
+        <v>84.80446453523942</v>
       </c>
       <c r="I31" t="n">
         <v>62.52302268118984</v>
       </c>
       <c r="J31" t="n">
-        <v>64.88836255427242</v>
+        <v>62.52302268118984</v>
       </c>
       <c r="K31" t="n">
-        <v>218.6218023514692</v>
+        <v>216.2564624783867</v>
       </c>
       <c r="L31" t="n">
-        <v>439.5973146230339</v>
+        <v>437.2319747499513</v>
       </c>
       <c r="M31" t="n">
-        <v>558.7447644713228</v>
+        <v>675.6534078025433</v>
       </c>
       <c r="N31" t="n">
-        <v>797.5675949434265</v>
+        <v>914.4762382746469</v>
       </c>
       <c r="O31" t="n">
-        <v>1016.345734819679</v>
+        <v>1133.254378150899</v>
       </c>
       <c r="P31" t="n">
-        <v>1199.478537961597</v>
+        <v>1199.478537961596</v>
       </c>
       <c r="Q31" t="n">
-        <v>1281.598495554105</v>
+        <v>1281.598495554104</v>
       </c>
       <c r="R31" t="n">
-        <v>1254.110161385826</v>
+        <v>1254.110161385825</v>
       </c>
       <c r="S31" t="n">
-        <v>1162.227022125439</v>
+        <v>1162.227022125438</v>
       </c>
       <c r="T31" t="n">
-        <v>1050.775889320156</v>
+        <v>1050.775889320155</v>
       </c>
       <c r="U31" t="n">
-        <v>885.2817876920981</v>
+        <v>885.2817876920974</v>
       </c>
       <c r="V31" t="n">
-        <v>746.2422114459118</v>
+        <v>746.2422114459113</v>
       </c>
       <c r="W31" t="n">
-        <v>581.7815381587021</v>
+        <v>581.7815381587017</v>
       </c>
       <c r="X31" t="n">
-        <v>472.2248022494691</v>
+        <v>472.2248022494687</v>
       </c>
       <c r="Y31" t="n">
-        <v>371.8853716371374</v>
+        <v>371.885371637137</v>
       </c>
     </row>
     <row r="32">
@@ -6683,37 +6683,37 @@
         <v>1080.843103853015</v>
       </c>
       <c r="E32" t="n">
-        <v>827.6761253552003</v>
+        <v>827.6761253551999</v>
       </c>
       <c r="F32" t="n">
-        <v>555.1436760614484</v>
+        <v>555.1436760614486</v>
       </c>
       <c r="G32" t="n">
-        <v>280.6751752564376</v>
+        <v>280.6751752564378</v>
       </c>
       <c r="H32" t="n">
-        <v>89.64412527022222</v>
+        <v>89.64412527022219</v>
       </c>
       <c r="I32" t="n">
-        <v>59.09120422504013</v>
+        <v>59.09120422504012</v>
       </c>
       <c r="J32" t="n">
-        <v>132.4826228347764</v>
+        <v>271.2831512770724</v>
       </c>
       <c r="K32" t="n">
-        <v>374.7105524451945</v>
+        <v>586.014654721106</v>
       </c>
       <c r="L32" t="n">
-        <v>797.6892991183943</v>
+        <v>936.4898275606899</v>
       </c>
       <c r="M32" t="n">
-        <v>1332.610645041803</v>
+        <v>1471.411173484099</v>
       </c>
       <c r="N32" t="n">
-        <v>1852.670811529383</v>
+        <v>1991.471339971678</v>
       </c>
       <c r="O32" t="n">
-        <v>2299.241015605638</v>
+        <v>2299.241015605637</v>
       </c>
       <c r="P32" t="n">
         <v>2668.558381837362</v>
@@ -6768,22 +6768,22 @@
         <v>355.7359054450991</v>
       </c>
       <c r="G33" t="n">
-        <v>227.0163644826383</v>
+        <v>227.0163644826382</v>
       </c>
       <c r="H33" t="n">
         <v>127.1650322459524</v>
       </c>
       <c r="I33" t="n">
-        <v>59.09120422504013</v>
+        <v>59.09120422504012</v>
       </c>
       <c r="J33" t="n">
         <v>120.1749371710777</v>
       </c>
       <c r="K33" t="n">
-        <v>351.0833850455459</v>
+        <v>351.0833850455451</v>
       </c>
       <c r="L33" t="n">
-        <v>718.8117654448603</v>
+        <v>718.8117654448595</v>
       </c>
       <c r="M33" t="n">
         <v>1206.069955642104</v>
@@ -6792,10 +6792,10 @@
         <v>1719.619323259141</v>
       </c>
       <c r="O33" t="n">
-        <v>2113.908433049016</v>
+        <v>2113.908433049015</v>
       </c>
       <c r="P33" t="n">
-        <v>2417.681086610318</v>
+        <v>2417.681086610317</v>
       </c>
       <c r="Q33" t="n">
         <v>2576.573568861533</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>167.1328202871927</v>
+        <v>167.1328202871925</v>
       </c>
       <c r="C34" t="n">
-        <v>139.1355921449508</v>
+        <v>139.1355921449507</v>
       </c>
       <c r="D34" t="n">
-        <v>127.6824403687914</v>
+        <v>127.6824403687913</v>
       </c>
       <c r="E34" t="n">
-        <v>117.2921675261881</v>
+        <v>117.292167526188</v>
       </c>
       <c r="F34" t="n">
-        <v>106.4302539480431</v>
+        <v>106.430253948043</v>
       </c>
       <c r="G34" t="n">
-        <v>79.1367576485692</v>
+        <v>79.13675764856914</v>
       </c>
       <c r="H34" t="n">
-        <v>61.44963287840313</v>
+        <v>61.44963287840309</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09120422504013</v>
+        <v>59.09120422504012</v>
       </c>
       <c r="J34" t="n">
-        <v>59.09120422504013</v>
+        <v>59.09120422504012</v>
       </c>
       <c r="K34" t="n">
         <v>93.55066081793399</v>
@@ -6865,43 +6865,43 @@
         <v>195.2521898851957</v>
       </c>
       <c r="M34" t="n">
-        <v>453.2001681757805</v>
+        <v>314.3996397334846</v>
       </c>
       <c r="N34" t="n">
-        <v>711.549543885877</v>
+        <v>433.9484870012852</v>
       </c>
       <c r="O34" t="n">
-        <v>811.0537005578263</v>
+        <v>655.0926146765562</v>
       </c>
       <c r="P34" t="n">
-        <v>874.9125204954418</v>
+        <v>857.7519630564676</v>
       </c>
       <c r="Q34" t="n">
-        <v>959.3984658869688</v>
+        <v>959.3984658869683</v>
       </c>
       <c r="R34" t="n">
-        <v>951.833144919377</v>
+        <v>951.8331449193765</v>
       </c>
       <c r="S34" t="n">
-        <v>879.8730188596766</v>
+        <v>879.8730188596762</v>
       </c>
       <c r="T34" t="n">
-        <v>788.3448992550801</v>
+        <v>788.3448992550798</v>
       </c>
       <c r="U34" t="n">
-        <v>642.7738108277086</v>
+        <v>642.7738108277083</v>
       </c>
       <c r="V34" t="n">
-        <v>523.6572477822091</v>
+        <v>523.6572477822089</v>
       </c>
       <c r="W34" t="n">
-        <v>379.1195876956861</v>
+        <v>379.1195876956858</v>
       </c>
       <c r="X34" t="n">
-        <v>289.4858649871397</v>
+        <v>289.4858649871395</v>
       </c>
       <c r="Y34" t="n">
-        <v>209.0694475754946</v>
+        <v>209.0694475754944</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1368.255564941932</v>
+        <v>1368.255564941931</v>
       </c>
       <c r="C35" t="n">
         <v>1153.139657163515</v>
       </c>
       <c r="D35" t="n">
-        <v>947.1335432795152</v>
+        <v>947.1335432795146</v>
       </c>
       <c r="E35" t="n">
-        <v>719.165674274398</v>
+        <v>719.1656742743976</v>
       </c>
       <c r="F35" t="n">
-        <v>471.8323344733445</v>
+        <v>471.8323344733438</v>
       </c>
       <c r="G35" t="n">
-        <v>222.5629431610319</v>
+        <v>222.5629431610311</v>
       </c>
       <c r="H35" t="n">
-        <v>56.73100266751435</v>
+        <v>56.73100266751432</v>
       </c>
       <c r="I35" t="n">
         <v>51.37719111503048</v>
@@ -6938,7 +6938,7 @@
         <v>288.2667853808563</v>
       </c>
       <c r="K35" t="n">
-        <v>693.9928906473638</v>
+        <v>693.9928906473639</v>
       </c>
       <c r="L35" t="n">
         <v>1044.468063486948</v>
@@ -6947,28 +6947,28 @@
         <v>1440.58888096806</v>
       </c>
       <c r="N35" t="n">
-        <v>1821.848519013344</v>
+        <v>1934.368570982403</v>
       </c>
       <c r="O35" t="n">
-        <v>2129.618194647303</v>
+        <v>2242.138246616362</v>
       </c>
       <c r="P35" t="n">
-        <v>2360.135032436731</v>
+        <v>2472.65508440579</v>
       </c>
       <c r="Q35" t="n">
-        <v>2493.165078911115</v>
+        <v>2568.859555751524</v>
       </c>
       <c r="R35" t="n">
         <v>2568.859555751524</v>
       </c>
       <c r="S35" t="n">
-        <v>2548.829993026036</v>
+        <v>2548.829993026035</v>
       </c>
       <c r="T35" t="n">
-        <v>2491.362196014849</v>
+        <v>2491.362196014848</v>
       </c>
       <c r="U35" t="n">
-        <v>2403.296050165197</v>
+        <v>2403.296050165196</v>
       </c>
       <c r="V35" t="n">
         <v>2233.134626949914</v>
@@ -6977,10 +6977,10 @@
         <v>2037.417547696291</v>
       </c>
       <c r="X35" t="n">
-        <v>1822.205258106561</v>
+        <v>1822.20525810656</v>
       </c>
       <c r="Y35" t="n">
-        <v>1595.481253571175</v>
+        <v>1595.481253571174</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>930.2860100971772</v>
+        <v>930.2860100971774</v>
       </c>
       <c r="C36" t="n">
-        <v>768.5823373381319</v>
+        <v>768.5823373381322</v>
       </c>
       <c r="D36" t="n">
-        <v>629.7437003283439</v>
+        <v>629.7437003283444</v>
       </c>
       <c r="E36" t="n">
-        <v>482.7156903852151</v>
+        <v>482.7156903852156</v>
       </c>
       <c r="F36" t="n">
-        <v>348.0218923350895</v>
+        <v>348.0218923350899</v>
       </c>
       <c r="G36" t="n">
-        <v>219.3023513726286</v>
+        <v>219.3023513726289</v>
       </c>
       <c r="H36" t="n">
         <v>119.4510191359428</v>
@@ -7014,31 +7014,31 @@
         <v>51.37719111503048</v>
       </c>
       <c r="J36" t="n">
-        <v>112.4609240610681</v>
+        <v>112.460924061068</v>
       </c>
       <c r="K36" t="n">
-        <v>343.3693719355356</v>
+        <v>343.369371935536</v>
       </c>
       <c r="L36" t="n">
-        <v>711.0977523348499</v>
+        <v>711.0977523348504</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.355942532094</v>
+        <v>1198.355942532095</v>
       </c>
       <c r="N36" t="n">
-        <v>1711.905310149131</v>
+        <v>1711.905310149132</v>
       </c>
       <c r="O36" t="n">
-        <v>2106.194419939005</v>
+        <v>2106.194419939006</v>
       </c>
       <c r="P36" t="n">
-        <v>2409.967073500307</v>
+        <v>2409.967073500308</v>
       </c>
       <c r="Q36" t="n">
-        <v>2568.859555751523</v>
+        <v>2568.859555751524</v>
       </c>
       <c r="R36" t="n">
-        <v>2509.631531608693</v>
+        <v>2509.631531608694</v>
       </c>
       <c r="S36" t="n">
         <v>2356.99845438182</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>56.26969657134978</v>
+        <v>54.17530976457406</v>
       </c>
       <c r="C37" t="n">
-        <v>53.47157792180617</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="D37" t="n">
-        <v>53.47157792180617</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="E37" t="n">
-        <v>53.47157792180617</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="F37" t="n">
-        <v>53.47157792180617</v>
+        <v>53.47157792180614</v>
       </c>
       <c r="G37" t="n">
         <v>51.37719111503048</v>
@@ -7090,55 +7090,55 @@
         <v>51.37719111503048</v>
       </c>
       <c r="I37" t="n">
-        <v>73.76334240566294</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="J37" t="n">
-        <v>101.1568858761382</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="K37" t="n">
-        <v>135.6163424690321</v>
+        <v>85.83664770792433</v>
       </c>
       <c r="L37" t="n">
-        <v>237.3178715362938</v>
+        <v>235.2234847295178</v>
       </c>
       <c r="M37" t="n">
-        <v>356.4653213845827</v>
+        <v>354.3709345778068</v>
       </c>
       <c r="N37" t="n">
-        <v>476.0141686523833</v>
+        <v>473.9197818456074</v>
       </c>
       <c r="O37" t="n">
-        <v>575.5183253243326</v>
+        <v>573.4239385175567</v>
       </c>
       <c r="P37" t="n">
-        <v>639.377145261948</v>
+        <v>637.2827584551721</v>
       </c>
       <c r="Q37" t="n">
-        <v>639.377145261948</v>
+        <v>637.2827584551721</v>
       </c>
       <c r="R37" t="n">
-        <v>639.377145261948</v>
+        <v>637.2827584551721</v>
       </c>
       <c r="S37" t="n">
-        <v>592.6161286949459</v>
+        <v>590.52174188817</v>
       </c>
       <c r="T37" t="n">
-        <v>526.2871185830478</v>
+        <v>524.1927317762719</v>
       </c>
       <c r="U37" t="n">
-        <v>405.9151396483746</v>
+        <v>403.8207528415987</v>
       </c>
       <c r="V37" t="n">
-        <v>311.9976860955733</v>
+        <v>309.9032992887974</v>
       </c>
       <c r="W37" t="n">
-        <v>192.6591355017485</v>
+        <v>190.5647486949726</v>
       </c>
       <c r="X37" t="n">
-        <v>128.2245222859003</v>
+        <v>126.1301354791245</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.00721436695352</v>
+        <v>70.91282756017776</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7154,19 @@
         <v>1153.139657163515</v>
       </c>
       <c r="D38" t="n">
-        <v>947.1335432795152</v>
+        <v>947.1335432795149</v>
       </c>
       <c r="E38" t="n">
-        <v>719.1656742743983</v>
+        <v>719.165674274398</v>
       </c>
       <c r="F38" t="n">
-        <v>471.8323344733444</v>
+        <v>471.8323344733446</v>
       </c>
       <c r="G38" t="n">
-        <v>222.5629431610318</v>
+        <v>222.5629431610319</v>
       </c>
       <c r="H38" t="n">
-        <v>56.73100266751438</v>
+        <v>56.73100266751441</v>
       </c>
       <c r="I38" t="n">
         <v>51.37719111503048</v>
@@ -7178,13 +7178,13 @@
         <v>366.9965393351849</v>
       </c>
       <c r="L38" t="n">
-        <v>717.4717121747688</v>
+        <v>754.2972873034195</v>
       </c>
       <c r="M38" t="n">
-        <v>1113.592529655882</v>
+        <v>1150.418104784532</v>
       </c>
       <c r="N38" t="n">
-        <v>1531.677742829816</v>
+        <v>1695.175918485905</v>
       </c>
       <c r="O38" t="n">
         <v>2002.945594119864</v>
@@ -7199,7 +7199,7 @@
         <v>2568.859555751524</v>
       </c>
       <c r="S38" t="n">
-        <v>2548.829993026035</v>
+        <v>2548.829993026036</v>
       </c>
       <c r="T38" t="n">
         <v>2491.362196014849</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>56.26969657134984</v>
+        <v>54.17530976457415</v>
       </c>
       <c r="C40" t="n">
-        <v>53.4715779218062</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="D40" t="n">
-        <v>53.4715779218062</v>
+        <v>53.47157792180623</v>
       </c>
       <c r="E40" t="n">
-        <v>53.4715779218062</v>
+        <v>53.47157792180623</v>
       </c>
       <c r="F40" t="n">
-        <v>53.4715779218062</v>
+        <v>53.47157792180623</v>
       </c>
       <c r="G40" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="H40" t="n">
-        <v>51.37719111503048</v>
+        <v>58.73968734158419</v>
       </c>
       <c r="I40" t="n">
-        <v>73.76334240566291</v>
+        <v>58.73968734158419</v>
       </c>
       <c r="J40" t="n">
-        <v>101.1568858761387</v>
+        <v>58.73968734158419</v>
       </c>
       <c r="K40" t="n">
-        <v>135.6163424690325</v>
+        <v>93.19914393447806</v>
       </c>
       <c r="L40" t="n">
-        <v>237.3178715362942</v>
+        <v>194.9006730017397</v>
       </c>
       <c r="M40" t="n">
-        <v>356.4653213845831</v>
+        <v>314.0481228500287</v>
       </c>
       <c r="N40" t="n">
-        <v>476.0141686523838</v>
+        <v>433.5969701178293</v>
       </c>
       <c r="O40" t="n">
-        <v>575.5183253243331</v>
+        <v>533.1011267897786</v>
       </c>
       <c r="P40" t="n">
-        <v>639.3771452619485</v>
+        <v>637.2827584551729</v>
       </c>
       <c r="Q40" t="n">
-        <v>639.3771452619485</v>
+        <v>637.2827584551729</v>
       </c>
       <c r="R40" t="n">
-        <v>639.3771452619485</v>
+        <v>637.2827584551729</v>
       </c>
       <c r="S40" t="n">
-        <v>592.6161286949463</v>
+        <v>590.5217418881707</v>
       </c>
       <c r="T40" t="n">
-        <v>526.287118583048</v>
+        <v>524.1927317762725</v>
       </c>
       <c r="U40" t="n">
-        <v>405.9151396483747</v>
+        <v>403.8207528415992</v>
       </c>
       <c r="V40" t="n">
-        <v>311.9976860955734</v>
+        <v>309.9032992887978</v>
       </c>
       <c r="W40" t="n">
-        <v>192.6591355017486</v>
+        <v>190.564748694973</v>
       </c>
       <c r="X40" t="n">
-        <v>128.2245222859004</v>
+        <v>126.1301354791248</v>
       </c>
       <c r="Y40" t="n">
-        <v>73.0072143669536</v>
+        <v>70.91282756017793</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>1368.255564941932</v>
       </c>
       <c r="C41" t="n">
-        <v>1153.139657163516</v>
+        <v>1153.139657163515</v>
       </c>
       <c r="D41" t="n">
-        <v>947.1335432795153</v>
+        <v>947.1335432795149</v>
       </c>
       <c r="E41" t="n">
-        <v>719.1656742743982</v>
+        <v>719.1656742743978</v>
       </c>
       <c r="F41" t="n">
-        <v>471.8323344733445</v>
+        <v>471.8323344733441</v>
       </c>
       <c r="G41" t="n">
-        <v>222.5629431610319</v>
+        <v>222.5629431610318</v>
       </c>
       <c r="H41" t="n">
         <v>56.73100266751438</v>
@@ -7415,28 +7415,28 @@
         <v>366.9965393351849</v>
       </c>
       <c r="L41" t="n">
-        <v>880.9698878308582</v>
+        <v>717.4717121747688</v>
       </c>
       <c r="M41" t="n">
-        <v>1277.090705311971</v>
+        <v>1226.112581624941</v>
       </c>
       <c r="N41" t="n">
-        <v>1658.350343357255</v>
+        <v>1770.870395326314</v>
       </c>
       <c r="O41" t="n">
-        <v>2129.618194647303</v>
+        <v>2078.640070960273</v>
       </c>
       <c r="P41" t="n">
-        <v>2396.960607565382</v>
+        <v>2472.655084405791</v>
       </c>
       <c r="Q41" t="n">
-        <v>2493.165078911115</v>
+        <v>2568.859555751524</v>
       </c>
       <c r="R41" t="n">
         <v>2568.859555751524</v>
       </c>
       <c r="S41" t="n">
-        <v>2548.829993026036</v>
+        <v>2548.829993026035</v>
       </c>
       <c r="T41" t="n">
         <v>2491.362196014849</v>
@@ -7445,10 +7445,10 @@
         <v>2403.296050165197</v>
       </c>
       <c r="V41" t="n">
-        <v>2233.134626949915</v>
+        <v>2233.134626949914</v>
       </c>
       <c r="W41" t="n">
-        <v>2037.417547696292</v>
+        <v>2037.417547696291</v>
       </c>
       <c r="X41" t="n">
         <v>1822.205258106561</v>
@@ -7488,13 +7488,13 @@
         <v>51.37719111503048</v>
       </c>
       <c r="J42" t="n">
-        <v>112.4609240610683</v>
+        <v>112.4609240610681</v>
       </c>
       <c r="K42" t="n">
-        <v>343.3693719355365</v>
+        <v>343.3693719355363</v>
       </c>
       <c r="L42" t="n">
-        <v>711.0977523348508</v>
+        <v>711.0977523348506</v>
       </c>
       <c r="M42" t="n">
         <v>1198.355942532095</v>
@@ -7512,7 +7512,7 @@
         <v>2568.859555751524</v>
       </c>
       <c r="R42" t="n">
-        <v>2509.631531608693</v>
+        <v>2509.631531608694</v>
       </c>
       <c r="S42" t="n">
         <v>2356.99845438182</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>56.26969657134984</v>
+        <v>54.17530976457412</v>
       </c>
       <c r="C43" t="n">
-        <v>53.4715779218062</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="D43" t="n">
         <v>53.4715779218062</v>
@@ -7579,40 +7579,40 @@
         <v>306.6856266234749</v>
       </c>
       <c r="N43" t="n">
-        <v>476.0141686523838</v>
+        <v>426.2344738912756</v>
       </c>
       <c r="O43" t="n">
-        <v>575.5183253243331</v>
+        <v>525.7386305632249</v>
       </c>
       <c r="P43" t="n">
-        <v>639.3771452619485</v>
+        <v>637.2827584551728</v>
       </c>
       <c r="Q43" t="n">
-        <v>639.3771452619485</v>
+        <v>637.2827584551728</v>
       </c>
       <c r="R43" t="n">
-        <v>639.3771452619485</v>
+        <v>637.2827584551728</v>
       </c>
       <c r="S43" t="n">
-        <v>592.6161286949463</v>
+        <v>590.5217418881706</v>
       </c>
       <c r="T43" t="n">
-        <v>526.287118583048</v>
+        <v>524.1927317762724</v>
       </c>
       <c r="U43" t="n">
-        <v>405.9151396483747</v>
+        <v>403.8207528415991</v>
       </c>
       <c r="V43" t="n">
-        <v>311.9976860955734</v>
+        <v>309.9032992887977</v>
       </c>
       <c r="W43" t="n">
-        <v>192.6591355017486</v>
+        <v>190.5647486949729</v>
       </c>
       <c r="X43" t="n">
-        <v>128.2245222859004</v>
+        <v>126.1301354791247</v>
       </c>
       <c r="Y43" t="n">
-        <v>73.0072143669536</v>
+        <v>70.91282756017787</v>
       </c>
     </row>
     <row r="44">
@@ -7646,28 +7646,28 @@
         <v>51.37719111503048</v>
       </c>
       <c r="J44" t="n">
-        <v>288.2667853808562</v>
+        <v>237.2886616938261</v>
       </c>
       <c r="K44" t="n">
-        <v>693.9928906473638</v>
+        <v>479.5165913042442</v>
       </c>
       <c r="L44" t="n">
-        <v>1044.468063486948</v>
+        <v>829.9917641438282</v>
       </c>
       <c r="M44" t="n">
-        <v>1477.414456096711</v>
+        <v>1226.112581624941</v>
       </c>
       <c r="N44" t="n">
-        <v>1858.674094141995</v>
+        <v>1607.372219670225</v>
       </c>
       <c r="O44" t="n">
-        <v>2166.443769775954</v>
+        <v>2078.640070960273</v>
       </c>
       <c r="P44" t="n">
-        <v>2396.960607565382</v>
+        <v>2309.156908749701</v>
       </c>
       <c r="Q44" t="n">
-        <v>2493.165078911115</v>
+        <v>2568.859555751524</v>
       </c>
       <c r="R44" t="n">
         <v>2568.859555751524</v>
@@ -7716,10 +7716,10 @@
         <v>348.0218923350906</v>
       </c>
       <c r="G45" t="n">
-        <v>219.3023513726286</v>
+        <v>219.3023513726297</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4510191359428</v>
+        <v>119.4510191359439</v>
       </c>
       <c r="I45" t="n">
         <v>51.37719111503048</v>
@@ -7731,7 +7731,7 @@
         <v>343.3693719355363</v>
       </c>
       <c r="L45" t="n">
-        <v>711.0977523348506</v>
+        <v>711.0977523348508</v>
       </c>
       <c r="M45" t="n">
         <v>1198.355942532095</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>56.26969657134984</v>
+        <v>54.17530976457412</v>
       </c>
       <c r="C46" t="n">
-        <v>53.4715779218062</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="D46" t="n">
-        <v>53.4715779218062</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="E46" t="n">
         <v>53.4715779218062</v>
@@ -7822,34 +7822,34 @@
         <v>525.7386305632249</v>
       </c>
       <c r="P46" t="n">
-        <v>639.3771452619485</v>
+        <v>589.5974505008403</v>
       </c>
       <c r="Q46" t="n">
-        <v>639.3771452619485</v>
+        <v>637.2827584551728</v>
       </c>
       <c r="R46" t="n">
-        <v>639.3771452619485</v>
+        <v>637.2827584551728</v>
       </c>
       <c r="S46" t="n">
-        <v>592.6161286949463</v>
+        <v>590.5217418881706</v>
       </c>
       <c r="T46" t="n">
-        <v>526.287118583048</v>
+        <v>524.1927317762724</v>
       </c>
       <c r="U46" t="n">
-        <v>405.9151396483747</v>
+        <v>403.8207528415991</v>
       </c>
       <c r="V46" t="n">
-        <v>311.9976860955734</v>
+        <v>309.9032992887977</v>
       </c>
       <c r="W46" t="n">
-        <v>192.6591355017486</v>
+        <v>190.5647486949729</v>
       </c>
       <c r="X46" t="n">
-        <v>128.2245222859004</v>
+        <v>126.1301354791247</v>
       </c>
       <c r="Y46" t="n">
-        <v>73.0072143669536</v>
+        <v>70.91282756017787</v>
       </c>
     </row>
   </sheetData>
@@ -7976,16 +7976,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>324.2571574753129</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
-        <v>584.3675935406823</v>
+        <v>414.5099123777163</v>
       </c>
       <c r="N2" t="n">
         <v>568.5510017355793</v>
@@ -8055,22 +8055,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>343.8048081163522</v>
+        <v>135.7789636251536</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
-        <v>597.8893731247591</v>
+        <v>597.8893731247588</v>
       </c>
       <c r="N3" t="n">
-        <v>106.7151410677083</v>
+        <v>589.1206116308272</v>
       </c>
       <c r="O3" t="n">
-        <v>477.7464000841854</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
         <v>414.0015992319183</v>
@@ -8216,10 +8216,10 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
-        <v>324.2571574753129</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
-        <v>542.9595789155856</v>
+        <v>445.8277000483829</v>
       </c>
       <c r="M5" t="n">
         <v>584.3675935406823</v>
@@ -8292,19 +8292,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>447.8178339189329</v>
       </c>
       <c r="M6" t="n">
-        <v>502.7519838733315</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N6" t="n">
-        <v>106.7151410677083</v>
+        <v>589.1206116308272</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8529,7 +8529,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
@@ -8541,10 +8541,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>623.1450866466196</v>
+        <v>479.0556164367791</v>
       </c>
       <c r="O9" t="n">
-        <v>428.7943191257726</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
         <v>108.8542060241433</v>
@@ -8766,10 +8766,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2176055929986</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>324.3871916100682</v>
+        <v>262.6864512605354</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -9003,10 +9003,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2176055929986</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>324.3871916100682</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9021,7 +9021,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>332.8832423761016</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2176055929986</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9255,13 +9255,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>512.0210150597484</v>
+        <v>430.9026582039316</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>253.6828575503201</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9477,13 +9477,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2176055929986</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>400.97409203868</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>253.6828575503197</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9726,10 +9726,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>542.0267297908044</v>
       </c>
       <c r="O24" t="n">
-        <v>430.9026582039316</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
@@ -9954,7 +9954,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>343.8048081163515</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -10428,7 +10428,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>343.8048081163514</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10446,7 +10446,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566028</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10665,7 +10665,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163515</v>
+        <v>343.804808116352</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -11136,7 +11136,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425317</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -11379,7 +11379,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>482.0924488944971</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>296.7936761061118</v>
       </c>
       <c r="C11" t="n">
-        <v>284.8049930637935</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>275.7862971083215</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>297.528434678227</v>
       </c>
       <c r="F11" t="n">
-        <v>94.75007745100385</v>
+        <v>316.7002507662041</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>236.0138654517434</v>
       </c>
       <c r="I11" t="n">
-        <v>77.14051780012022</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,13 +23312,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.0257287543167</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>10.07153999951709</v>
       </c>
       <c r="W11" t="n">
-        <v>265.6001528242479</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>56.6908035510409</v>
       </c>
       <c r="C13" t="n">
-        <v>74.61038182620936</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>58.2317462237877</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>57.17949607956714</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>57.64642040775345</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>73.91368730186906</v>
       </c>
       <c r="H13" t="n">
-        <v>64.40337948785435</v>
+        <v>64.40337948785429</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>49.22797033221926</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.38279372330587</v>
+        <v>54.38279372330581</v>
       </c>
       <c r="S13" t="n">
-        <v>118.1336507644933</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>137.5059643739404</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.64012693159536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,16 +23498,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>267.1610149268299</v>
+        <v>182.2733228436059</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>308.0749685847126</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>309.9916595808591</v>
       </c>
       <c r="H14" t="n">
         <v>227.3885832702518</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>120.1080812227443</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>125.3991281879013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>287.6717266717015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>49.60646404229612</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>48.55421389807557</v>
+        <v>48.55421389807562</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>49.02113822626193</v>
       </c>
       <c r="G16" t="n">
-        <v>65.28840512037749</v>
+        <v>65.28840512037753</v>
       </c>
       <c r="H16" t="n">
-        <v>55.77809730636272</v>
+        <v>55.77809730636277</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>40.60268815072773</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>45.75751154181424</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.05797776596755</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>6.798126973088628</v>
       </c>
     </row>
     <row r="17">
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>129.3792327223744</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>129.3792327223745</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>820225.4203277542</v>
+        <v>820225.4203277543</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>838505.9731074517</v>
+        <v>838505.9731074518</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422193.2332717997</v>
+        <v>422193.2332718002</v>
       </c>
       <c r="C2" t="n">
         <v>422193.2332717999</v>
       </c>
       <c r="D2" t="n">
-        <v>422193.2332717999</v>
+        <v>422193.2332718</v>
       </c>
       <c r="E2" t="n">
-        <v>365308.9281106429</v>
+        <v>365308.9281106431</v>
       </c>
       <c r="F2" t="n">
-        <v>373687.5148013373</v>
+        <v>373687.5148013372</v>
       </c>
       <c r="G2" t="n">
         <v>422193.2332718003</v>
       </c>
       <c r="H2" t="n">
-        <v>422193.2332718003</v>
+        <v>422193.2332718004</v>
       </c>
       <c r="I2" t="n">
-        <v>422193.2332718004</v>
+        <v>422193.2332718005</v>
       </c>
       <c r="J2" t="n">
+        <v>422193.2332717999</v>
+      </c>
+      <c r="K2" t="n">
+        <v>416529.0104632146</v>
+      </c>
+      <c r="L2" t="n">
         <v>422193.2332717997</v>
       </c>
-      <c r="K2" t="n">
-        <v>416529.0104632148</v>
-      </c>
-      <c r="L2" t="n">
-        <v>422193.2332717999</v>
-      </c>
       <c r="M2" t="n">
+        <v>422193.233271801</v>
+      </c>
+      <c r="N2" t="n">
+        <v>422193.233271801</v>
+      </c>
+      <c r="O2" t="n">
+        <v>422193.2332718008</v>
+      </c>
+      <c r="P2" t="n">
         <v>422193.2332718009</v>
-      </c>
-      <c r="N2" t="n">
-        <v>422193.2332718009</v>
-      </c>
-      <c r="O2" t="n">
-        <v>422193.2332718009</v>
-      </c>
-      <c r="P2" t="n">
-        <v>422193.2332718008</v>
       </c>
     </row>
     <row r="3">
@@ -26363,37 +26363,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161665.1685115242</v>
+        <v>161665.1685115241</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13325.32208792221</v>
+        <v>13325.32208792232</v>
       </c>
       <c r="E3" t="n">
-        <v>106750.8106315865</v>
+        <v>106750.8106315866</v>
       </c>
       <c r="F3" t="n">
-        <v>6900.225745193279</v>
+        <v>6900.225745193234</v>
       </c>
       <c r="G3" t="n">
-        <v>54812.18849490288</v>
+        <v>54812.18849490291</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>209602.50063711</v>
+        <v>209602.5006371098</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>70591.21494984669</v>
+        <v>70591.2149498467</v>
       </c>
       <c r="M3" t="n">
         <v>19957.694718217</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>41570.82823584697</v>
+        <v>41570.82823584703</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218708.3170611419</v>
+        <v>218708.317061142</v>
       </c>
       <c r="C4" t="n">
-        <v>218708.317061142</v>
+        <v>218708.3170611421</v>
       </c>
       <c r="D4" t="n">
         <v>208183.1070948236</v>
       </c>
       <c r="E4" t="n">
-        <v>140386.1585433804</v>
+        <v>140386.1585433806</v>
       </c>
       <c r="F4" t="n">
         <v>149102.4005680729</v>
@@ -26433,7 +26433,7 @@
         <v>199218.3669545892</v>
       </c>
       <c r="H4" t="n">
-        <v>199218.3669545891</v>
+        <v>199218.3669545892</v>
       </c>
       <c r="I4" t="n">
         <v>199218.3669545892</v>
@@ -26448,7 +26448,7 @@
         <v>198057.4931249706</v>
       </c>
       <c r="M4" t="n">
-        <v>197569.3581676765</v>
+        <v>197569.3581676766</v>
       </c>
       <c r="N4" t="n">
         <v>197569.3581676765</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62957.85261023765</v>
+        <v>62957.85261023763</v>
       </c>
       <c r="C5" t="n">
-        <v>62957.85261023765</v>
+        <v>62957.85261023763</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
@@ -26485,10 +26485,10 @@
         <v>52220.53348678994</v>
       </c>
       <c r="H5" t="n">
-        <v>52220.53348678993</v>
+        <v>52220.53348678994</v>
       </c>
       <c r="I5" t="n">
-        <v>52220.53348678994</v>
+        <v>52220.53348678997</v>
       </c>
       <c r="J5" t="n">
         <v>58461.03826873651</v>
@@ -26500,7 +26500,7 @@
         <v>56785.89611314775</v>
       </c>
       <c r="M5" t="n">
-        <v>53020.52544612266</v>
+        <v>53020.52544612265</v>
       </c>
       <c r="N5" t="n">
         <v>53020.52544612265</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21138.10491110406</v>
+        <v>-21138.1049111036</v>
       </c>
       <c r="C6" t="n">
-        <v>140527.0636004203</v>
+        <v>140527.0636004202</v>
       </c>
       <c r="D6" t="n">
         <v>135118.7694521427</v>
       </c>
       <c r="E6" t="n">
-        <v>72436.55163982433</v>
+        <v>72177.98661636448</v>
       </c>
       <c r="F6" t="n">
-        <v>171224.3623445036</v>
+        <v>171003.8818060015</v>
       </c>
       <c r="G6" t="n">
         <v>115942.1443355183</v>
       </c>
       <c r="H6" t="n">
+        <v>170754.3328304213</v>
+      </c>
+      <c r="I6" t="n">
         <v>170754.3328304212</v>
       </c>
-      <c r="I6" t="n">
-        <v>170754.3328304213</v>
-      </c>
       <c r="J6" t="n">
-        <v>-44157.56345357825</v>
+        <v>-44157.56345357802</v>
       </c>
       <c r="K6" t="n">
-        <v>166340.4748896133</v>
+        <v>166314.7284223013</v>
       </c>
       <c r="L6" t="n">
-        <v>96758.62908383485</v>
+        <v>96758.62908383462</v>
       </c>
       <c r="M6" t="n">
         <v>151645.6549397847</v>
       </c>
       <c r="N6" t="n">
-        <v>171603.3496580017</v>
+        <v>171603.3496580019</v>
       </c>
       <c r="O6" t="n">
-        <v>130032.5214221548</v>
+        <v>130032.5214221545</v>
       </c>
       <c r="P6" t="n">
         <v>171603.3496580017</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="F2" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="G2" t="n">
         <v>170.4499458168474</v>
@@ -26710,13 +26710,13 @@
         <v>129.1040530949289</v>
       </c>
       <c r="K2" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="L2" t="n">
         <v>140.2025539821171</v>
       </c>
       <c r="M2" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="N2" t="n">
         <v>165.1496723798883</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>482.4054705631193</v>
+        <v>482.4054705631189</v>
       </c>
       <c r="C4" t="n">
-        <v>482.4054705631193</v>
+        <v>482.4054705631189</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
@@ -26805,10 +26805,10 @@
         <v>621.7283651401109</v>
       </c>
       <c r="H4" t="n">
-        <v>621.7283651401108</v>
+        <v>621.7283651401109</v>
       </c>
       <c r="I4" t="n">
-        <v>621.7283651401109</v>
+        <v>621.7283651401114</v>
       </c>
       <c r="J4" t="n">
         <v>781.537783514873</v>
@@ -26817,10 +26817,10 @@
         <v>781.5377835148729</v>
       </c>
       <c r="L4" t="n">
-        <v>738.6400528130016</v>
+        <v>738.6400528130015</v>
       </c>
       <c r="M4" t="n">
-        <v>642.214888937881</v>
+        <v>642.2148889378809</v>
       </c>
       <c r="N4" t="n">
         <v>642.214888937881</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="F2" t="n">
-        <v>8.625282181491599</v>
+        <v>8.625282181491542</v>
       </c>
       <c r="G2" t="n">
-        <v>68.51523561862859</v>
+        <v>68.51523561862864</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>51.96353529480871</v>
+        <v>51.96353529480876</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>88.23901868730836</v>
+        <v>88.23901868730839</v>
       </c>
       <c r="M2" t="n">
         <v>24.94711839777125</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>51.96353529480871</v>
+        <v>51.96353529480879</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>482.4054705631193</v>
+        <v>482.4054705631189</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>42.89773070187107</v>
+        <v>42.89773070187141</v>
       </c>
       <c r="E4" t="n">
         <v>96.42516387512057</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>642.2148889378813</v>
+        <v>642.2148889378806</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="K2" t="n">
-        <v>8.625282181491599</v>
+        <v>8.625282181491542</v>
       </c>
       <c r="L2" t="n">
-        <v>68.51523561862859</v>
+        <v>68.51523561862864</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>51.96353529480871</v>
+        <v>51.96353529480876</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>482.4054705631193</v>
+        <v>482.4054705631189</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>42.89773070187107</v>
+        <v>42.89773070187141</v>
       </c>
       <c r="M4" t="n">
         <v>96.42516387512057</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>328.6193744836194</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>56.02663125710268</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>116.612096963996</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>169.9558662954417</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
         <v>151.5411742405149</v>
@@ -27549,7 +27549,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>28.22651541493764</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
         <v>157.7789187685189</v>
@@ -27594,16 +27594,16 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>14.68413607146334</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>258.9705110057477</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>121.1444650416038</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27695,16 +27695,16 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>59.66250068802907</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>152.1566779266397</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.02892344416107</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
         <v>151.5411742405149</v>
@@ -27828,13 +27828,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>165.1163179816817</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27913,13 +27913,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.08098174017101201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27941,10 +27941,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27986,7 +27986,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>194.0744660745362</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27995,10 +27995,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>106.4411796807436</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>38.93235352442619</v>
       </c>
       <c r="D10" t="n">
         <v>151.5411742405149</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
@@ -28077,7 +28077,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>42.71577926664511</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="C11" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="D11" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="E11" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="F11" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="G11" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="H11" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="I11" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,40 +28123,40 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>93.30942801672714</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>78.29049885193967</v>
       </c>
       <c r="P11" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="Q11" t="n">
-        <v>93.30942801672714</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="S11" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="T11" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="U11" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="V11" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="W11" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="X11" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>12.1110118136823</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.39308974070319</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>58.63574390140148</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28229,7 +28229,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>20.86835765298375</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="C13" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="D13" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="E13" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="F13" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="G13" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="H13" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="I13" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="J13" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="K13" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="L13" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="M13" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="N13" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="O13" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="P13" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="R13" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="S13" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="T13" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="U13" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="V13" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="W13" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="X13" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.30942801672714</v>
+        <v>93.3094280167272</v>
       </c>
     </row>
     <row r="14">
@@ -28324,46 +28324,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="C14" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="D14" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="E14" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="F14" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="G14" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="H14" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="I14" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="J14" t="n">
-        <v>43.78937012597339</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>57.03347545986836</v>
       </c>
       <c r="L14" t="n">
-        <v>101.9347101982188</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="N14" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="O14" t="n">
-        <v>101.9347101982188</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>101.9347101982188</v>
+        <v>88.69060486432404</v>
       </c>
       <c r="S14" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="T14" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="U14" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="V14" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="W14" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="X14" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="Y14" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
     </row>
     <row r="15">
@@ -28412,7 +28412,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>79.50410155438549</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.39308974070319</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28460,7 +28460,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>12.11101181368221</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="C16" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="D16" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="E16" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="F16" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="G16" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="H16" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="I16" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="J16" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="K16" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="L16" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="M16" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="N16" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="O16" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="P16" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="R16" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="S16" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="T16" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="U16" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="V16" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="W16" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="X16" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
       <c r="Y16" t="n">
-        <v>101.9347101982188</v>
+        <v>101.9347101982187</v>
       </c>
     </row>
     <row r="17">
@@ -28585,7 +28585,7 @@
         <v>170.4499458168474</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>170.4499458168474</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -28600,16 +28600,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>21.93771442082988</v>
       </c>
       <c r="P17" t="n">
-        <v>170.4499458168474</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>170.4499458168474</v>
       </c>
       <c r="R17" t="n">
-        <v>110.628319285154</v>
+        <v>88.69060486432404</v>
       </c>
       <c r="S17" t="n">
         <v>170.4499458168474</v>
@@ -28649,10 +28649,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>12.11101181368232</v>
       </c>
       <c r="F18" t="n">
-        <v>79.50410155438553</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.39308974070319</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>142.5373983489465</v>
       </c>
       <c r="J19" t="n">
-        <v>61.00842481557753</v>
+        <v>58.93095321465074</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.077471600926799</v>
       </c>
       <c r="Q19" t="n">
         <v>37.52931879979314</v>
@@ -28822,31 +28822,31 @@
         <v>170.4499458168474</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
         <v>170.4499458168474</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
       <c r="Q20" t="n">
-        <v>110.6283192851534</v>
+        <v>170.4499458168474</v>
       </c>
       <c r="R20" t="n">
-        <v>170.4499458168474</v>
+        <v>110.628319285154</v>
       </c>
       <c r="S20" t="n">
         <v>170.4499458168474</v>
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>79.50410155438549</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>58.63574390140148</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>20.86835765298417</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>142.5373983489465</v>
       </c>
       <c r="J22" t="n">
-        <v>58.93095321465074</v>
+        <v>61.00842481557753</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>37.52931879979314</v>
       </c>
       <c r="R22" t="n">
-        <v>149.7696933409598</v>
+        <v>147.692221740033</v>
       </c>
       <c r="S22" t="n">
         <v>170.4499458168474</v>
@@ -29059,11 +29059,11 @@
         <v>170.4499458168474</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>170.4499458168474</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
@@ -29074,10 +29074,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>110.6283192851554</v>
       </c>
       <c r="P23" t="n">
-        <v>110.6283192851537</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>12.1110118136823</v>
+        <v>12.11101181368053</v>
       </c>
       <c r="I24" t="n">
         <v>67.39308974070319</v>
@@ -29196,13 +29196,13 @@
         <v>170.4499458168474</v>
       </c>
       <c r="C25" t="n">
-        <v>169.9972814438633</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>152.5663956972212</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -29296,10 +29296,10 @@
         <v>129.1040530949289</v>
       </c>
       <c r="J26" t="n">
-        <v>51.47651346150553</v>
+        <v>129.1040530949289</v>
       </c>
       <c r="K26" t="n">
-        <v>129.1040530949289</v>
+        <v>51.47651346150556</v>
       </c>
       <c r="L26" t="n">
         <v>129.1040530949289</v>
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29454,28 +29454,28 @@
         <v>129.1040530949289</v>
       </c>
       <c r="J28" t="n">
-        <v>58.93095321465074</v>
+        <v>129.1040530949289</v>
       </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>89.44071415231885</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>129.1040530949289</v>
       </c>
-      <c r="L28" t="n">
+      <c r="O28" t="n">
         <v>129.1040530949289</v>
-      </c>
-      <c r="M28" t="n">
-        <v>68.03907973746129</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>129.1040530949289</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.1040530949289</v>
+        <v>37.52931879979314</v>
       </c>
       <c r="R28" t="n">
         <v>129.1040530949289</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="C29" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="D29" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="E29" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="F29" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="G29" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="H29" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="I29" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="J29" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="K29" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="L29" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="M29" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="N29" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="O29" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="P29" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="Q29" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="R29" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="S29" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="T29" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="U29" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="V29" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="W29" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="X29" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="Y29" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="C31" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="D31" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="E31" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="F31" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="G31" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="I31" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="J31" t="n">
-        <v>61.32018540968365</v>
+        <v>58.93095321465074</v>
       </c>
       <c r="K31" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="L31" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="N31" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="O31" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="P31" t="n">
-        <v>120.4787709134373</v>
+        <v>2.389232195031994</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="R31" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="S31" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="T31" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="U31" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="V31" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="W31" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="X31" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
       <c r="Y31" t="n">
-        <v>120.4787709134373</v>
+        <v>120.4787709134374</v>
       </c>
     </row>
     <row r="32">
@@ -29770,13 +29770,13 @@
         <v>140.2025539821171</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>140.2025539821171</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>73.23593316526822</v>
       </c>
       <c r="L32" t="n">
-        <v>73.23593316526848</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>140.2025539821171</v>
@@ -29785,7 +29785,7 @@
         <v>140.2025539821171</v>
       </c>
       <c r="O32" t="n">
-        <v>140.2025539821171</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>140.2025539821171</v>
@@ -29937,19 +29937,19 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>122.8686575791128</v>
+      </c>
+      <c r="P34" t="n">
         <v>140.2025539821171</v>
       </c>
-      <c r="N34" t="n">
+      <c r="Q34" t="n">
         <v>140.2025539821171</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>122.8686575791134</v>
       </c>
       <c r="R34" t="n">
         <v>140.2025539821171</v>
@@ -29983,34 +29983,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="C35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="D35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="E35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="F35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="G35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="H35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="I35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="J35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="K35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30019,7 +30019,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>113.6566181505646</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30028,31 +30028,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>37.19755063500072</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>165.1496723798883</v>
+        <v>88.69060486432404</v>
       </c>
       <c r="S35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="T35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="U35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="V35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="W35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="X35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Y35" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="C37" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30153,25 +30153,25 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>153.071390653547</v>
       </c>
       <c r="G37" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="H37" t="n">
         <v>157.7128075045815</v>
       </c>
       <c r="I37" t="n">
-        <v>165.1496723798883</v>
+        <v>142.5373983489465</v>
       </c>
       <c r="J37" t="n">
-        <v>86.60119914442375</v>
+        <v>58.93095321465074</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>48.16697773164834</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>147.692221740033</v>
       </c>
       <c r="S37" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="T37" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="U37" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="V37" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="W37" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="X37" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
     </row>
     <row r="38">
@@ -30250,16 +30250,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>37.19755063500065</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>37.19755063500048</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="O38" t="n">
-        <v>165.1496723798883</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>165.1496723798883</v>
@@ -30384,7 +30384,7 @@
         <v>165.1496723798883</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>153.6567164695813</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
@@ -30396,13 +30396,13 @@
         <v>165.1496723798883</v>
       </c>
       <c r="H40" t="n">
-        <v>157.7128075045815</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="I40" t="n">
-        <v>165.1496723798883</v>
+        <v>142.5373983489465</v>
       </c>
       <c r="J40" t="n">
-        <v>86.60119914442423</v>
+        <v>58.93095321465074</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>40.73011285634234</v>
       </c>
       <c r="Q40" t="n">
         <v>37.52931879979314</v>
@@ -30487,25 +30487,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>113.6566181505655</v>
+      </c>
+      <c r="N41" t="n">
         <v>165.1496723798883</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
       <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>165.1496723798883</v>
       </c>
-      <c r="P41" t="n">
-        <v>37.1975506350006</v>
-      </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>165.1496723798883</v>
+        <v>88.69060486432404</v>
       </c>
       <c r="S41" t="n">
         <v>165.1496723798883</v>
@@ -30584,10 +30584,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>-8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>-7.958078640513122e-13</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30621,7 +30621,7 @@
         <v>165.1496723798883</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>153.6567164695813</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
@@ -30651,13 +30651,13 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>50.28251996071532</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>48.16697773164903</v>
       </c>
       <c r="Q43" t="n">
         <v>37.52931879979314</v>
@@ -30718,31 +30718,31 @@
         <v>165.1496723798883</v>
       </c>
       <c r="J44" t="n">
+        <v>113.656618150565</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>165.1496723798883</v>
       </c>
-      <c r="K44" t="n">
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>165.1496723798883</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>37.19755063500048</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
       <c r="R44" t="n">
-        <v>165.1496723798883</v>
+        <v>88.69060486432404</v>
       </c>
       <c r="S44" t="n">
         <v>165.1496723798883</v>
@@ -30788,13 +30788,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>-1.06581410364015e-12</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30861,7 +30861,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>152.6044663253607</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
@@ -30894,10 +30894,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>50.28251996071536</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.52931879979314</v>
+        <v>85.69629653144216</v>
       </c>
       <c r="R46" t="n">
         <v>147.692221740033</v>
@@ -34696,16 +34696,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>145.4341535012661</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
-        <v>397.2112790435232</v>
+        <v>227.3535978805572</v>
       </c>
       <c r="N2" t="n">
         <v>382.1528875633492</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>231.8086389496855</v>
+        <v>23.78279445848696</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>482.4054705631193</v>
+        <v>482.4054705631189</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>482.4054705631189</v>
       </c>
       <c r="O3" t="n">
-        <v>361.8869514730744</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
         <v>305.147393207775</v>
@@ -34936,10 +34936,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>145.4341535012661</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
-        <v>351.3993667524709</v>
+        <v>254.2674878852683</v>
       </c>
       <c r="M5" t="n">
         <v>397.2112790435232</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>335.2424003477852</v>
       </c>
       <c r="M6" t="n">
-        <v>387.2680813116916</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>482.4054705631189</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
@@ -35261,10 +35261,10 @@
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>516.4299455789112</v>
+        <v>372.3404753690708</v>
       </c>
       <c r="O9" t="n">
-        <v>312.9348705146615</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>74.13274607044072</v>
+        <v>167.4421740871679</v>
       </c>
       <c r="K11" t="n">
-        <v>244.6746763741597</v>
+        <v>337.9841043908869</v>
       </c>
       <c r="L11" t="n">
         <v>354.0153261005898</v>
@@ -35419,7 +35419,7 @@
         <v>400.1220378597099</v>
       </c>
       <c r="N11" t="n">
-        <v>478.4201735170137</v>
+        <v>385.1107455002865</v>
       </c>
       <c r="O11" t="n">
         <v>389.1689590882618</v>
@@ -35428,10 +35428,10 @@
         <v>326.1547187131195</v>
       </c>
       <c r="Q11" t="n">
-        <v>190.4856616992861</v>
+        <v>97.17623368255899</v>
       </c>
       <c r="R11" t="n">
-        <v>4.6188231524031</v>
+        <v>4.618823152403157</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>61.70074034953289</v>
       </c>
       <c r="K12" t="n">
-        <v>213.8232399325728</v>
+        <v>152.1224995830399</v>
       </c>
       <c r="L12" t="n">
         <v>371.4428084841559</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.3784748020764</v>
+        <v>34.37847480207646</v>
       </c>
       <c r="K13" t="n">
         <v>128.1169599287412</v>
       </c>
       <c r="L13" t="n">
-        <v>196.0382452563854</v>
+        <v>196.0382452563855</v>
       </c>
       <c r="M13" t="n">
-        <v>213.6603874594432</v>
+        <v>213.6603874594433</v>
       </c>
       <c r="N13" t="n">
         <v>214.065839398344</v>
       </c>
       <c r="O13" t="n">
-        <v>193.8186771803123</v>
+        <v>193.8186771803124</v>
       </c>
       <c r="P13" t="n">
         <v>157.813286539571</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.780109216934</v>
+        <v>55.78010921693406</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.9221161964141</v>
+        <v>176.0674562686595</v>
       </c>
       <c r="K14" t="n">
-        <v>244.6746763741597</v>
+        <v>301.7081518340281</v>
       </c>
       <c r="L14" t="n">
-        <v>455.9500362988086</v>
+        <v>354.0153261005898</v>
       </c>
       <c r="M14" t="n">
-        <v>400.1220378597099</v>
+        <v>502.0567480579286</v>
       </c>
       <c r="N14" t="n">
         <v>487.0454556985052</v>
       </c>
       <c r="O14" t="n">
-        <v>412.8131704345409</v>
+        <v>310.8784602363221</v>
       </c>
       <c r="P14" t="n">
         <v>232.8452906963923</v>
@@ -35668,7 +35668,7 @@
         <v>97.17623368255899</v>
       </c>
       <c r="R14" t="n">
-        <v>13.24410533389473</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>61.70074034953289</v>
       </c>
       <c r="K15" t="n">
-        <v>213.8232399325728</v>
+        <v>233.2408564388568</v>
       </c>
       <c r="L15" t="n">
         <v>371.4428084841559</v>
@@ -35741,7 +35741,7 @@
         <v>398.2718280705802</v>
       </c>
       <c r="P15" t="n">
-        <v>306.8410642033352</v>
+        <v>225.7227073475185</v>
       </c>
       <c r="Q15" t="n">
         <v>160.49745681941</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.00375698356803</v>
+        <v>43.00375698356799</v>
       </c>
       <c r="K16" t="n">
-        <v>136.7422421102328</v>
+        <v>136.7422421102327</v>
       </c>
       <c r="L16" t="n">
         <v>204.663527437877</v>
       </c>
       <c r="M16" t="n">
-        <v>222.2856696409349</v>
+        <v>222.2856696409348</v>
       </c>
       <c r="N16" t="n">
         <v>222.6911215798356</v>
@@ -35823,7 +35823,7 @@
         <v>166.4385687210626</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.40539139842562</v>
+        <v>64.40539139842559</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>74.13274607044072</v>
+        <v>244.5826918872881</v>
       </c>
       <c r="K17" t="n">
         <v>244.6746763741597</v>
@@ -35896,16 +35896,16 @@
         <v>385.1107455002865</v>
       </c>
       <c r="O17" t="n">
-        <v>310.8784602363221</v>
+        <v>332.816174657152</v>
       </c>
       <c r="P17" t="n">
-        <v>403.2952365132396</v>
+        <v>232.8452906963923</v>
       </c>
       <c r="Q17" t="n">
         <v>267.6261794994063</v>
       </c>
       <c r="R17" t="n">
-        <v>21.93771442083</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>61.70074034953289</v>
       </c>
       <c r="K18" t="n">
         <v>233.2408564388568</v>
@@ -35975,13 +35975,13 @@
         <v>518.736734966704</v>
       </c>
       <c r="O18" t="n">
-        <v>398.2718280705802</v>
+        <v>317.1534712147634</v>
       </c>
       <c r="P18" t="n">
         <v>306.8410642033352</v>
       </c>
       <c r="Q18" t="n">
-        <v>141.0798403131263</v>
+        <v>160.49745681941</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.077471600926796</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>34.807531912014</v>
@@ -36057,7 +36057,7 @@
         <v>100.5092491635852</v>
       </c>
       <c r="P19" t="n">
-        <v>64.50385852284384</v>
+        <v>66.58133012377064</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>244.5826918872881</v>
+        <v>74.13274607044072</v>
       </c>
       <c r="K20" t="n">
         <v>244.6746763741597</v>
@@ -36136,13 +36136,13 @@
         <v>310.8784602363221</v>
       </c>
       <c r="P20" t="n">
-        <v>232.8452906963923</v>
+        <v>403.2952365132396</v>
       </c>
       <c r="Q20" t="n">
-        <v>207.8045529677124</v>
+        <v>267.6261794994063</v>
       </c>
       <c r="R20" t="n">
-        <v>81.75934095252332</v>
+        <v>21.93771442083</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>61.70074034953289</v>
       </c>
       <c r="K21" t="n">
         <v>233.2408564388568</v>
       </c>
       <c r="L21" t="n">
-        <v>371.4428084841559</v>
+        <v>290.324451628339</v>
       </c>
       <c r="M21" t="n">
         <v>492.1799900982264</v>
@@ -36218,7 +36218,7 @@
         <v>306.8410642033352</v>
       </c>
       <c r="Q21" t="n">
-        <v>141.0798403131258</v>
+        <v>160.49745681941</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2.077471600926796</v>
       </c>
       <c r="K22" t="n">
         <v>34.807531912014</v>
@@ -36300,7 +36300,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>2.077471600926796</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>244.5826918872881</v>
+        <v>74.13274607044072</v>
       </c>
       <c r="K23" t="n">
-        <v>244.6746763741597</v>
+        <v>415.1246221910071</v>
       </c>
       <c r="L23" t="n">
         <v>354.0153261005898</v>
@@ -36370,10 +36370,10 @@
         <v>385.1107455002865</v>
       </c>
       <c r="O23" t="n">
-        <v>310.8784602363221</v>
+        <v>421.5067795214775</v>
       </c>
       <c r="P23" t="n">
-        <v>343.473609981546</v>
+        <v>232.8452906963923</v>
       </c>
       <c r="Q23" t="n">
         <v>97.17623368255899</v>
@@ -36446,10 +36446,10 @@
         <v>492.1799900982264</v>
       </c>
       <c r="N24" t="n">
-        <v>518.736734966704</v>
+        <v>437.6183781108889</v>
       </c>
       <c r="O24" t="n">
-        <v>317.1534712147634</v>
+        <v>398.2718280705802</v>
       </c>
       <c r="P24" t="n">
         <v>306.8410642033352</v>
@@ -36492,13 +36492,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>2.077471600926796</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>2.077471600926875</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>125.6092595319463</v>
+        <v>203.2367991653697</v>
       </c>
       <c r="K26" t="n">
-        <v>373.7787294690887</v>
+        <v>296.1511898356653</v>
       </c>
       <c r="L26" t="n">
         <v>483.1193791955188</v>
@@ -36674,7 +36674,7 @@
         <v>61.70074034953289</v>
       </c>
       <c r="K27" t="n">
-        <v>233.2408564388568</v>
+        <v>233.2408564388561</v>
       </c>
       <c r="L27" t="n">
         <v>371.4428084841559</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>70.1730998802782</v>
       </c>
       <c r="K28" t="n">
-        <v>163.9115850069429</v>
+        <v>34.807531912014</v>
       </c>
       <c r="L28" t="n">
-        <v>231.8328703345872</v>
+        <v>192.1695313919771</v>
       </c>
       <c r="M28" t="n">
-        <v>188.3900391801774</v>
+        <v>120.3509594427161</v>
       </c>
       <c r="N28" t="n">
-        <v>120.7564113816168</v>
+        <v>249.8604644765458</v>
       </c>
       <c r="O28" t="n">
-        <v>100.5092491635852</v>
+        <v>229.6133022585141</v>
       </c>
       <c r="P28" t="n">
         <v>193.6079116177728</v>
       </c>
       <c r="Q28" t="n">
-        <v>91.5747342951358</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>194.611516983878</v>
+        <v>194.6115169838781</v>
       </c>
       <c r="K29" t="n">
-        <v>365.153447287597</v>
+        <v>365.1534472875971</v>
       </c>
       <c r="L29" t="n">
-        <v>474.4940970140271</v>
+        <v>474.4940970140272</v>
       </c>
       <c r="M29" t="n">
-        <v>520.6008087731473</v>
+        <v>520.6008087731474</v>
       </c>
       <c r="N29" t="n">
-        <v>505.5895164137238</v>
+        <v>505.5895164137239</v>
       </c>
       <c r="O29" t="n">
-        <v>431.3572311497594</v>
+        <v>431.3572311497595</v>
       </c>
       <c r="P29" t="n">
         <v>353.3240616098296</v>
       </c>
       <c r="Q29" t="n">
-        <v>217.6550045959963</v>
+        <v>217.6550045959964</v>
       </c>
       <c r="R29" t="n">
-        <v>31.78816604911327</v>
+        <v>31.78816604911331</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.389232195032912</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>155.2863028254513</v>
@@ -36996,7 +36996,7 @@
         <v>223.2075881530956</v>
       </c>
       <c r="M31" t="n">
-        <v>120.3509594427161</v>
+        <v>240.8297303561534</v>
       </c>
       <c r="N31" t="n">
         <v>241.2351822950542</v>
@@ -37005,10 +37005,10 @@
         <v>220.9880200770225</v>
       </c>
       <c r="P31" t="n">
-        <v>184.9826294362812</v>
+        <v>66.89309071787584</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.94945211364418</v>
+        <v>82.94945211364423</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>74.13274607044072</v>
+        <v>214.3353000525578</v>
       </c>
       <c r="K32" t="n">
-        <v>244.6746763741597</v>
+        <v>317.9106095394279</v>
       </c>
       <c r="L32" t="n">
-        <v>427.2512592658583</v>
+        <v>354.0153261005898</v>
       </c>
       <c r="M32" t="n">
         <v>540.3245918418271</v>
@@ -37081,7 +37081,7 @@
         <v>525.3132994824036</v>
       </c>
       <c r="O32" t="n">
-        <v>451.0810142184392</v>
+        <v>310.8784602363221</v>
       </c>
       <c r="P32" t="n">
         <v>373.0478446785094</v>
@@ -37090,7 +37090,7 @@
         <v>237.3787876646761</v>
       </c>
       <c r="R32" t="n">
-        <v>51.51194911779304</v>
+        <v>51.51194911779307</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>61.70074034953289</v>
       </c>
       <c r="K33" t="n">
-        <v>233.2408564388568</v>
+        <v>233.240856438856</v>
       </c>
       <c r="L33" t="n">
         <v>371.4428084841559</v>
@@ -37166,7 +37166,7 @@
         <v>306.8410642033352</v>
       </c>
       <c r="Q33" t="n">
-        <v>160.497456819409</v>
+        <v>160.49745681941</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>102.7288172396583</v>
       </c>
       <c r="M34" t="n">
-        <v>260.5535134248332</v>
+        <v>120.3509594427161</v>
       </c>
       <c r="N34" t="n">
-        <v>260.9589653637339</v>
+        <v>120.7564113816168</v>
       </c>
       <c r="O34" t="n">
-        <v>100.5092491635852</v>
+        <v>223.3779067426979</v>
       </c>
       <c r="P34" t="n">
-        <v>64.50385852284384</v>
+        <v>204.706412504961</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.33933877932023</v>
+        <v>102.673235182324</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>239.2824184503291</v>
       </c>
       <c r="K35" t="n">
-        <v>409.824348754048</v>
+        <v>409.8243487540481</v>
       </c>
       <c r="L35" t="n">
         <v>354.0153261005898</v>
@@ -37315,7 +37315,7 @@
         <v>400.1220378597099</v>
       </c>
       <c r="N35" t="n">
-        <v>385.1107455002865</v>
+        <v>498.7673636508511</v>
       </c>
       <c r="O35" t="n">
         <v>310.8784602363221</v>
@@ -37324,10 +37324,10 @@
         <v>232.8452906963923</v>
       </c>
       <c r="Q35" t="n">
-        <v>134.3737843175597</v>
+        <v>97.17623368255899</v>
       </c>
       <c r="R35" t="n">
-        <v>76.45906751556429</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>61.70074034953289</v>
       </c>
       <c r="K36" t="n">
-        <v>233.2408564388561</v>
+        <v>233.2408564388566</v>
       </c>
       <c r="L36" t="n">
         <v>371.4428084841559</v>
@@ -37449,7 +37449,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2.115542229066323</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37458,16 +37458,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>22.61227403094188</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>27.67024592977301</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>34.807531912014</v>
       </c>
       <c r="L37" t="n">
-        <v>102.7288172396583</v>
+        <v>150.8957949713066</v>
       </c>
       <c r="M37" t="n">
         <v>120.3509594427161</v>
@@ -37546,16 +37546,16 @@
         <v>244.6746763741597</v>
       </c>
       <c r="L38" t="n">
-        <v>354.0153261005898</v>
+        <v>391.2128767355905</v>
       </c>
       <c r="M38" t="n">
         <v>400.1220378597099</v>
       </c>
       <c r="N38" t="n">
-        <v>422.308296135287</v>
+        <v>550.2604178801748</v>
       </c>
       <c r="O38" t="n">
-        <v>476.0281326162104</v>
+        <v>310.8784602363221</v>
       </c>
       <c r="P38" t="n">
         <v>397.9949630762806</v>
@@ -37564,7 +37564,7 @@
         <v>97.17623368255899</v>
       </c>
       <c r="R38" t="n">
-        <v>76.45906751556426</v>
+        <v>76.45906751556423</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37680,7 +37680,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>2.115542229066409</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -37692,13 +37692,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>7.43686487530678</v>
       </c>
       <c r="I40" t="n">
-        <v>22.61227403094185</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>27.6702459297735</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>34.807531912014</v>
@@ -37716,7 +37716,7 @@
         <v>100.5092491635852</v>
       </c>
       <c r="P40" t="n">
-        <v>64.50385852284384</v>
+        <v>105.2339713791862</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>244.6746763741597</v>
       </c>
       <c r="L41" t="n">
-        <v>519.1649984804782</v>
+        <v>354.0153261005898</v>
       </c>
       <c r="M41" t="n">
-        <v>400.1220378597099</v>
+        <v>513.7786560102754</v>
       </c>
       <c r="N41" t="n">
-        <v>385.1107455002865</v>
+        <v>550.2604178801748</v>
       </c>
       <c r="O41" t="n">
-        <v>476.0281326162104</v>
+        <v>310.8784602363221</v>
       </c>
       <c r="P41" t="n">
-        <v>270.0428413313929</v>
+        <v>397.9949630762806</v>
       </c>
       <c r="Q41" t="n">
         <v>97.17623368255899</v>
       </c>
       <c r="R41" t="n">
-        <v>76.45906751556426</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>61.7007403495331</v>
+        <v>61.70074034953289</v>
       </c>
       <c r="K42" t="n">
         <v>233.2408564388568</v>
@@ -37917,7 +37917,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>2.115542229066381</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37947,13 +37947,13 @@
         <v>120.3509594427161</v>
       </c>
       <c r="N43" t="n">
-        <v>171.0389313423321</v>
+        <v>120.7564113816168</v>
       </c>
       <c r="O43" t="n">
         <v>100.5092491635852</v>
       </c>
       <c r="P43" t="n">
-        <v>64.50385852284384</v>
+        <v>112.6708362544929</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>239.282418450329</v>
+        <v>187.7893642210057</v>
       </c>
       <c r="K44" t="n">
-        <v>409.824348754048</v>
+        <v>244.6746763741597</v>
       </c>
       <c r="L44" t="n">
         <v>354.0153261005898</v>
       </c>
       <c r="M44" t="n">
-        <v>437.3195884947104</v>
+        <v>400.1220378597099</v>
       </c>
       <c r="N44" t="n">
         <v>385.1107455002865</v>
       </c>
       <c r="O44" t="n">
-        <v>310.8784602363221</v>
+        <v>476.0281326162104</v>
       </c>
       <c r="P44" t="n">
         <v>232.8452906963923</v>
       </c>
       <c r="Q44" t="n">
-        <v>97.17623368255899</v>
+        <v>262.3259060624472</v>
       </c>
       <c r="R44" t="n">
-        <v>76.45906751556426</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>233.2408564388568</v>
       </c>
       <c r="L45" t="n">
-        <v>371.4428084841559</v>
+        <v>371.4428084841562</v>
       </c>
       <c r="M45" t="n">
         <v>492.1799900982264</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>2.115542229066381</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38190,10 +38190,10 @@
         <v>100.5092491635852</v>
       </c>
       <c r="P46" t="n">
-        <v>114.7863784835592</v>
+        <v>64.50385852284384</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>48.16697773164902</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
